--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P34_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P34_trail14 Features.xlsx
@@ -4964,7 +4964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4975,29 +4975,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5018,115 +5016,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5143,72 +5131,66 @@
         <v>7.382957199989148e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.3521562015473664</v>
+        <v>2.717443690766851e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.5179126585957277</v>
+        <v>4.009864649185139e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.717443690766851e-07</v>
+        <v>-0.01005994612862845</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.009864649185139e-06</v>
+        <v>0.2430608793029155</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.01005994612862845</v>
+        <v>0.05913021385804337</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2430608793029155</v>
+        <v>1.92224642711709</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.05913021385804337</v>
+        <v>2.340741041911573</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.939351424424598</v>
+        <v>3.782114149188748</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.340741041911573</v>
+        <v>3.531745381711077e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.782114149188748</v>
+        <v>615059734.61919</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.531745381711077e-16</v>
+        <v>1.95196008398819e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>615059734.61919</v>
+        <v>133.605389958224</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.95196008398819e-07</v>
+        <v>0.0001604147993933245</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>133.605389958224</v>
+        <v>8.442300008382665</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001604147993933245</v>
+        <v>1.527561395565024</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.442300008382665</v>
+        <v>0.01143315246953503</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.527561395565024</v>
+        <v>3.098772676285487</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01143315246953503</v>
+        <v>0.9598814299687534</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.098772676285487</v>
+        <v>1.274255014042467</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9598814299687534</v>
+        <v>32</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.274255014042467</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.5537984591400498</v>
       </c>
     </row>
@@ -5223,72 +5205,66 @@
         <v>7.381171455649911e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.363288825861289</v>
+        <v>2.717443690766851e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.510287389448945</v>
+        <v>4.009594757447242e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.717443690766851e-07</v>
+        <v>0.00202221121701276</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.009594757447242e-06</v>
+        <v>0.222675944821262</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.00202221121701276</v>
+        <v>0.04956177960066875</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.222675944821262</v>
+        <v>1.922453148420489</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04956177960066875</v>
+        <v>2.21834343629812</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.943437702474613</v>
+        <v>3.789625838070904</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.21834343629812</v>
+        <v>3.517758206846915e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.789625838070904</v>
+        <v>616293377.3049408</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.517758206846915e-16</v>
+        <v>1.948732600913698e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>616293377.3049408</v>
+        <v>133.6106222391706</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.948732600913698e-07</v>
+        <v>0.000168164573397437</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>133.6106222391706</v>
+        <v>9.953177083147853</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000168164573397437</v>
+        <v>1.429854668782366</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.953177083147853</v>
+        <v>0.01665934690456989</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.429854668782366</v>
+        <v>3.060394368824739</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01665934690456989</v>
+        <v>0.9606586948973128</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.060394368824739</v>
+        <v>1.269509398302051</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9606586948973128</v>
+        <v>32</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.269509398302051</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.5405227717191777</v>
       </c>
     </row>
@@ -5303,72 +5279,66 @@
         <v>7.36088986415256e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.3501800164676546</v>
+        <v>2.717443690766851e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.4950319374027283</v>
+        <v>4.010087848426528e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.717443690766851e-07</v>
+        <v>0.01080765512674326</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.010087848426528e-06</v>
+        <v>0.211276339314682</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.01080765512674326</v>
+        <v>0.04474035658257041</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.211276339314682</v>
+        <v>1.921256781652742</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04474035658257041</v>
+        <v>2.162073725917266</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.941366662992429</v>
+        <v>3.916118735123021</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.162073725917266</v>
+        <v>3.294177136263044e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.916118735123021</v>
+        <v>680096783.5613692</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.294177136263044e-16</v>
+        <v>1.768168409748442e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>680096783.5613692</v>
+        <v>152.3661136850018</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.768168409748442e-07</v>
+        <v>0.000159778515065305</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>152.3661136850018</v>
+        <v>11.61535704263628</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000159778515065305</v>
+        <v>1.083026216662896</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>11.61535704263628</v>
+        <v>0.02155676110001675</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.083026216662896</v>
+        <v>2.847117070261625</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02155676110001675</v>
+        <v>0.9614225614457259</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.847117070261625</v>
+        <v>1.270145212327909</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9614225614457259</v>
+        <v>54</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.270145212327909</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.5354130912954023</v>
       </c>
     </row>
@@ -5383,72 +5353,66 @@
         <v>7.293327873305822e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.3379665480223573</v>
+        <v>2.717443690766851e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.44434407081514</v>
+        <v>4.011129197299665e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.717443690766851e-07</v>
+        <v>0.0172321344115064</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.011129197299665e-06</v>
+        <v>0.2064375275790698</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.0172321344115064</v>
+        <v>0.04290625392943468</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2064375275790698</v>
+        <v>1.920553826275711</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04290625392943468</v>
+        <v>2.147130387642308</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.938273019629608</v>
+        <v>4.040471879049669</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.147130387642308</v>
+        <v>3.094528405124655e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.040471879049669</v>
+        <v>725688765.9926717</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.094528405124655e-16</v>
+        <v>1.658553938853999e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>725688765.9926717</v>
+        <v>162.9653499580337</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.658553938853999e-07</v>
+        <v>0.0001642671207479958</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>162.9653499580337</v>
+        <v>11.15602563191082</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001642671207479958</v>
+        <v>1.075391843197139</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.15602563191082</v>
+        <v>0.02044417791790706</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.075391843197139</v>
+        <v>2.715737165352602</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02044417791790706</v>
+        <v>0.9627770299538901</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.715737165352602</v>
+        <v>1.273043574831642</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9627770299538901</v>
+        <v>54</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.273043574831642</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.4989534264317428</v>
       </c>
     </row>
@@ -5463,72 +5427,66 @@
         <v>7.172274365422959e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.3454136192874442</v>
+        <v>2.717443690766851e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.3700790916377241</v>
+        <v>4.012561310154549e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.717443690766851e-07</v>
+        <v>0.02210290483337581</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.012561310154549e-06</v>
+        <v>0.2062911485216498</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.02210290483337581</v>
+        <v>0.04304129532526167</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2062911485216498</v>
+        <v>1.929390420010104</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.04304129532526167</v>
+        <v>2.170883946895054</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.943199744775497</v>
+        <v>4.11275818711438</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.170883946895054</v>
+        <v>2.903308771077775e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.11275818711438</v>
+        <v>812294544.548593</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.903308771077775e-16</v>
+        <v>1.490091093772788e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>812294544.548593</v>
+        <v>191.5668239963145</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.490091093772788e-07</v>
+        <v>0.0001631949695158822</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>191.5668239963145</v>
+        <v>9.778271111077409</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001631949695158822</v>
+        <v>1.179454401643361</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.778271111077409</v>
+        <v>0.01560381943477059</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.179454401643361</v>
+        <v>2.840589150302126</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01560381943477059</v>
+        <v>0.9625864844180966</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.840589150302126</v>
+        <v>1.258478453078356</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9625864844180966</v>
+        <v>54</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.258478453078356</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.5050118738241999</v>
       </c>
     </row>
@@ -5543,72 +5501,66 @@
         <v>7.001834708373009e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.3842352608039936</v>
+        <v>2.717443690766851e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.2952467348447612</v>
+        <v>4.014268142296659e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.717443690766851e-07</v>
+        <v>0.02586536753281729</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.014268142296659e-06</v>
+        <v>0.2095603896215981</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.02586536753281729</v>
+        <v>0.04458339312427542</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2095603896215981</v>
+        <v>1.926790764424301</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04458339312427542</v>
+        <v>2.320034140325138</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.940902191194875</v>
+        <v>3.905058632241338</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.320034140325138</v>
+        <v>2.807734560691996e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.905058632241338</v>
+        <v>843605951.4103572</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.807734560691996e-16</v>
+        <v>1.434427304402903e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>843605951.4103572</v>
+        <v>199.8183266065868</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.434427304402903e-07</v>
+        <v>0.0001656292583699424</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>199.8183266065868</v>
+        <v>8.706229852288143</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001656292583699424</v>
+        <v>1.385762861841564</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.706229852288143</v>
+        <v>0.01255443911143571</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.385762861841564</v>
+        <v>2.981682824505508</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01255443911143571</v>
+        <v>0.9612617197109599</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.981682824505508</v>
+        <v>1.239701146897632</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9612617197109599</v>
+        <v>54</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.239701146897632</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.5735928606295027</v>
       </c>
     </row>
@@ -5623,72 +5575,66 @@
         <v>6.79127435549044e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.4613685070520857</v>
+        <v>2.717443690766851e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.2422355375222978</v>
+        <v>4.016157369127873e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.717443690766851e-07</v>
+        <v>0.02877085473941356</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.016157369127873e-06</v>
+        <v>0.215405696452431</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.02877085473941356</v>
+        <v>0.04722718529241641</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.215405696452431</v>
+        <v>1.931211642786911</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.04722718529241641</v>
+        <v>2.29705682601832</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.94104657564082</v>
+        <v>3.841812209562322</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.29705682601832</v>
+        <v>2.980366639172855e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.841812209562322</v>
+        <v>797955865.4245608</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.980366639172855e-16</v>
+        <v>1.517533665557175e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>797955865.4245608</v>
+        <v>189.7699469699998</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.517533665557175e-07</v>
+        <v>0.0001769593461277819</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>189.7699469699998</v>
+        <v>9.206040599716335</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001769593461277819</v>
+        <v>1.472126394356458</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.206040599716335</v>
+        <v>0.01499751401989641</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.472126394356458</v>
+        <v>3.069393466390542</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01499751401989641</v>
+        <v>0.9613152628590005</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.069393466390542</v>
+        <v>1.247032940352776</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9613152628590005</v>
+        <v>54</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.247032940352776</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.7273934822082534</v>
       </c>
     </row>
@@ -5703,72 +5649,66 @@
         <v>6.553546550147014e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.5783539296078486</v>
+        <v>2.714187574689172e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.2268025891551972</v>
+        <v>4.018155016000231e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.714187574689172e-07</v>
+        <v>0.03099871057596861</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.018155016000231e-06</v>
+        <v>0.2231480926281793</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.03099871057596861</v>
+        <v>0.05075570607468163</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2231480926281793</v>
+        <v>1.931366564641792</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.05075570607468163</v>
+        <v>2.196912944870673</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.945170463815963</v>
+        <v>4.03842882604673</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.196912944870673</v>
+        <v>3.242134234267113e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.03842882604673</v>
+        <v>732168412.8579696</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.242134234267113e-16</v>
+        <v>1.655980604168098e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>732168412.8579696</v>
+        <v>173.8012794921389</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.655980604168098e-07</v>
+        <v>0.0001815479896087056</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>173.8012794921389</v>
+        <v>12.25953182089677</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001815479896087056</v>
+        <v>1.101616807534803</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>12.25953182089677</v>
+        <v>0.02728595851687709</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.101616807534803</v>
+        <v>3.021039689119287</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.02728595851687709</v>
+        <v>0.9607427927322528</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.021039689119287</v>
+        <v>1.241104879517528</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9607427927322528</v>
+        <v>54</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.241104879517528</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>1.105124927361964</v>
       </c>
     </row>
@@ -5783,72 +5723,66 @@
         <v>6.305317063545232e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.727943856268562</v>
+        <v>2.664118689522996e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.2512451578809021</v>
+        <v>4.02020044493527e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.664118689522996e-07</v>
+        <v>0.03251381700643455</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.02020044493527e-06</v>
+        <v>0.2319794526266976</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.03251381700643455</v>
+        <v>0.05486977328546552</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2319794526266976</v>
+        <v>1.933501033962359</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.05486977328546552</v>
+        <v>2.42966673241474</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.948256480745806</v>
+        <v>3.982050177758942</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.42966673241474</v>
+        <v>3.58997598063745e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.982050177758942</v>
+        <v>656774651.0327613</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.58997598063745e-16</v>
+        <v>1.844340965588146e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>656774651.0327613</v>
+        <v>154.8546701816041</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.844340965588146e-07</v>
+        <v>0.0001970288535964945</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>154.8546701816041</v>
+        <v>13.71323870796527</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001970288535964945</v>
+        <v>1.005892545263647</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>13.71323870796527</v>
+        <v>0.03705185042769636</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.005892545263647</v>
+        <v>2.894232180085571</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.03705185042769636</v>
+        <v>0.9595817913580262</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.894232180085571</v>
+        <v>1.195971606619809</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9595817913580262</v>
+        <v>46</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.195971606619809</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>1.364018101553513</v>
       </c>
     </row>
@@ -5863,72 +5797,66 @@
         <v>6.0681641487799e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.8886782811541585</v>
+        <v>2.545930570109968e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.2976777062400582</v>
+        <v>4.022228607991125e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.545930570109968e-07</v>
+        <v>0.03283598352385154</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.022228607991125e-06</v>
+        <v>0.2404810348221549</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.03283598352385154</v>
+        <v>0.05890353596959817</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2404810348221549</v>
+        <v>1.940069848641286</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.05890353596959817</v>
+        <v>2.201052187634989</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.961449194389193</v>
+        <v>4.053912929750264</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.201052187634989</v>
+        <v>3.463826784216617e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.053912929750264</v>
+        <v>679337109.2376961</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.463826784216617e-16</v>
+        <v>1.788178675814982e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>679337109.2376961</v>
+        <v>159.8552278373578</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.788178675814982e-07</v>
+        <v>0.0001803734535030533</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>159.8552278373578</v>
+        <v>12.40114733698063</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001803734535030533</v>
+        <v>1.110462230205531</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>12.40114733698063</v>
+        <v>0.02773935478658137</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.110462230205531</v>
+        <v>3.238499526160203</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.02773935478658137</v>
+        <v>0.9600450853890586</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.238499526160203</v>
+        <v>1.084967833308883</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9600450853890586</v>
+        <v>45</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.084967833308883</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>1.536781284311849</v>
       </c>
     </row>
@@ -5943,72 +5871,66 @@
         <v>5.86948380758179e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1.021303460974906</v>
+        <v>2.343586334873684e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.3319325743898953</v>
+        <v>4.024146471058261e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.343586334873684e-07</v>
+        <v>0.03114090125668456</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.024146471058261e-06</v>
+        <v>0.2459778059486065</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.03114090125668456</v>
+        <v>0.06146080116586206</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2459778059486065</v>
+        <v>1.936045121317187</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.06146080116586206</v>
+        <v>2.073180255076231</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.957950120031627</v>
+        <v>4.670782357832239</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.073180255076231</v>
+        <v>2.512627899128871e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.670782357832239</v>
+        <v>892113768.9364817</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.512627899128871e-16</v>
+        <v>1.352178872104975e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>892113768.9364817</v>
+        <v>199.9717569717232</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.352178872104975e-07</v>
+        <v>0.0001361208639719232</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>199.9717569717232</v>
+        <v>10.99382910648237</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001361208639719232</v>
+        <v>1.215383703632905</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>10.99382910648237</v>
+        <v>0.01645215000221908</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.215383703632905</v>
+        <v>3.765759008960401</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01645215000221908</v>
+        <v>0.9607614092539392</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.765759008960401</v>
+        <v>1.098402713065534</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9607614092539392</v>
+        <v>45</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.098402713065534</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>2.077757483308754</v>
       </c>
     </row>
@@ -6023,72 +5945,66 @@
         <v>5.736197817716798e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1.083698298142224</v>
+        <v>2.046044558050323e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.3424097028089506</v>
+        <v>4.025843924128842e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.046044558050323e-07</v>
+        <v>0.02709736495835915</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.025843924128842e-06</v>
+        <v>0.2449833364486928</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.02709736495835915</v>
+        <v>0.06072229286592128</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2449833364486928</v>
+        <v>1.938000975803959</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.06072229286592128</v>
+        <v>2.060355662500089</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.959502878887217</v>
+        <v>5.301536200627867</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.060355662500089</v>
+        <v>1.958166150250027e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.301536200627867</v>
+        <v>1150880806.528162</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.958166150250027e-16</v>
+        <v>1.051154850999011e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>1150880806.528162</v>
+        <v>259.3643213605637</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.051154850999011e-07</v>
+        <v>8.900495965049767e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>259.3643213605637</v>
+        <v>9.53819454947789</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>8.900495965049767e-05</v>
+        <v>1.249824033905936</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.53819454947789</v>
+        <v>0.008097418033361767</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.249824033905936</v>
+        <v>4.408288363005362</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.008097418033361767</v>
+        <v>0.9620816895982934</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>4.408288363005362</v>
+        <v>1.121373984133114</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9620816895982934</v>
+        <v>45</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.121373984133114</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>3.227379519701056</v>
       </c>
     </row>
@@ -6103,72 +6019,66 @@
         <v>5.682736119358721e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1.067094369352388</v>
+        <v>1.788049909728008e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.3756433030230704</v>
+        <v>4.027209458693205e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.788049909728008e-07</v>
+        <v>0.0203861101011818</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.027209458693205e-06</v>
+        <v>0.2331944230883213</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.0203861101011818</v>
+        <v>0.05474535741855762</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2331944230883213</v>
+        <v>1.930037373783235</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.05474535741855762</v>
+        <v>2.178139321458933</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.94372964216928</v>
+        <v>4.883007000653715</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.178139321458933</v>
+        <v>1.579163419416044e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.883007000653715</v>
+        <v>1428016675.751698</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.579163419416044e-16</v>
+        <v>8.454551807847674e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>1428016675.751698</v>
+        <v>322.0279987850703</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>8.454551807847674e-08</v>
+        <v>6.771517174004422e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>322.0279987850703</v>
+        <v>9.786915020275238</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>6.771517174004422e-05</v>
+        <v>1.346896242710244</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.786915020275238</v>
+        <v>0.006486010075555879</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.346896242710244</v>
+        <v>4.937123026475463</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.006486010075555879</v>
+        <v>0.9606676877340007</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>4.937123026475463</v>
+        <v>1.174043952510268</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9606676877340007</v>
+        <v>48</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.174043952510268</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>4.574941558584477</v>
       </c>
     </row>
@@ -6183,72 +6093,66 @@
         <v>5.693953024817061e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1.019951058692074</v>
+        <v>1.788049909728008e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.4592604782183782</v>
+        <v>4.0280930507521e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.788049909728008e-07</v>
+        <v>0.01039961349672767</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.0280930507521e-06</v>
+        <v>0.2062703586301755</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.01039961349672767</v>
+        <v>0.04259273711811207</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.2062703586301755</v>
+        <v>1.927784403499668</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.04259273711811207</v>
+        <v>2.244640711057621</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.936399570570279</v>
+        <v>5.572895404712702</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.244640711057621</v>
+        <v>1.818560326252846e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.572895404712702</v>
+        <v>1250678258.764973</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.818560326252846e-16</v>
+        <v>9.66206166327049e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>1250678258.764973</v>
+        <v>284.4584982573669</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>9.66206166327049e-08</v>
+        <v>0.0001210251023583723</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>284.4584982573669</v>
+        <v>10.43960487260398</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001210251023583723</v>
+        <v>1.838080078112987</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.43960487260398</v>
+        <v>0.01318996312673814</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.838080078112987</v>
+        <v>4.492382141858926</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01318996312673814</v>
+        <v>0.9612001935827083</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>4.492382141858926</v>
+        <v>1.326212388153189</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9612001935827083</v>
+        <v>48</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.326212388153189</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>3.02860411691937</v>
       </c>
     </row>
@@ -6263,72 +6167,66 @@
         <v>5.712479338722336e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1.001829545120991</v>
+        <v>1.788049909728008e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.5056016989636181</v>
+        <v>4.028375601019253e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.788049909728008e-07</v>
+        <v>-1.776646886751447e-05</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.028375601019253e-06</v>
+        <v>0.1743885887137216</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-1.776646886751447e-05</v>
+        <v>0.03036679410607108</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1743885887137216</v>
+        <v>1.930837411031584</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.03036679410607108</v>
+        <v>2.401783676090499</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.940796882644207</v>
+        <v>5.141859436634912</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.401783676090499</v>
+        <v>2.455093920271066e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.141859436634912</v>
+        <v>973795531.977862</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.455093920271066e-16</v>
+        <v>1.243136080646626e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>973795531.977862</v>
+        <v>232.8110909537824</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.243136080646626e-07</v>
+        <v>0.0001445793273162126</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>232.8110909537824</v>
+        <v>9.44996846250171</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001445793273162126</v>
+        <v>1.984728421445894</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.44996846250171</v>
+        <v>0.01291120920003144</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.984728421445894</v>
+        <v>3.766119530726089</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01291120920003144</v>
+        <v>0.9616362976798714</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.766119530726089</v>
+        <v>1.288439987817565</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9616362976798714</v>
+        <v>25</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.288439987817565</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>1.342133819207443</v>
       </c>
     </row>
@@ -6343,72 +6241,66 @@
         <v>5.683213567575073e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1.008215733143612</v>
+        <v>1.788049909728008e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.4759491361672548</v>
+        <v>4.02815205367703e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.788049909728008e-07</v>
+        <v>-0.006921682962771318</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.02815205367703e-06</v>
+        <v>0.1561532741906776</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.006921682962771318</v>
+        <v>0.02441171582003978</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1561532741906776</v>
+        <v>1.929122200704984</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02441171582003978</v>
+        <v>2.44526581065561</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.933750867547379</v>
+        <v>4.968235268646124</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.44526581065561</v>
+        <v>2.629687876200239e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.968235268646124</v>
+        <v>923475412.5253816</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.629687876200239e-16</v>
+        <v>1.312560372451614e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>923475412.5253816</v>
+        <v>224.2615801416775</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.312560372451614e-07</v>
+        <v>0.0001167369719036868</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>224.2615801416775</v>
+        <v>8.363233946083239</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001167369719036868</v>
+        <v>1.370067682051891</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.363233946083239</v>
+        <v>0.00816501364478422</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.370067682051891</v>
+        <v>3.393690655805899</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.00816501364478422</v>
+        <v>0.9606115270730585</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.393690655805899</v>
+        <v>1.295204523580705</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9606115270730585</v>
+        <v>38</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.295204523580705</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.7582639529069566</v>
       </c>
     </row>
@@ -6423,72 +6315,66 @@
         <v>5.606003387381092e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1.005340361367736</v>
+        <v>1.788049909728008e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.4599615643604462</v>
+        <v>4.027685099593561e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.788049909728008e-07</v>
+        <v>-0.008572063061216278</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4.027685099593561e-06</v>
+        <v>0.1547436082190487</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.008572063061216278</v>
+        <v>0.02401096937270037</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1547436082190487</v>
+        <v>1.920655225475877</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.02401096937270037</v>
+        <v>2.457288927210088</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.920780115463188</v>
+        <v>4.783505199930355</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.457288927210088</v>
+        <v>2.836716993103151e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.783505199930355</v>
+        <v>856241945.7779554</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.836716993103151e-16</v>
+        <v>1.414342856735543e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>856241945.7779554</v>
+        <v>207.9739828583435</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.414342856735543e-07</v>
+        <v>0.0001296987706647333</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>207.9739828583435</v>
+        <v>8.883377120949708</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001296987706647333</v>
+        <v>1.173151947122384</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.883377120949708</v>
+        <v>0.01023509925052821</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.173151947122384</v>
+        <v>2.98011131931208</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01023509925052821</v>
+        <v>0.9595074993317536</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.98011131931208</v>
+        <v>1.344170792473753</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9595074993317536</v>
+        <v>38</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.344170792473753</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.5645808026780826</v>
       </c>
     </row>
@@ -6503,72 +6389,66 @@
         <v>5.530515879661845e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.9877902632526763</v>
+        <v>1.787148820468097e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.501599751110605</v>
+        <v>4.027293277784257e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.787148820468097e-07</v>
+        <v>-0.004485283379112475</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>4.027293277784257e-06</v>
+        <v>0.1627058449156559</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.004485283379112475</v>
+        <v>0.02648216374985751</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1627058449156559</v>
+        <v>1.923039055642215</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.02648216374985751</v>
+        <v>2.025010653288938</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.910805924390986</v>
+        <v>5.64406504005402</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.025010653288938</v>
+        <v>4.682982463076776e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>5.64406504005402</v>
+        <v>512192032.9999093</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>4.682982463076776e-16</v>
+        <v>2.364336375237817e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>512192032.9999093</v>
+        <v>122.8536797556621</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>2.364336375237817e-07</v>
+        <v>0.0001398811976057428</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>122.8536797556621</v>
+        <v>8.27503928628979</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001398811976057428</v>
+        <v>1.271992274701375</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.27503928628979</v>
+        <v>0.009578543381107175</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.271992274701375</v>
+        <v>3.026351866699615</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.009578543381107175</v>
+        <v>0.9587973653690991</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.026351866699615</v>
+        <v>1.402995401561227</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9587973653690991</v>
+        <v>16</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.402995401561227</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.4536780317781688</v>
       </c>
     </row>
@@ -6583,72 +6463,66 @@
         <v>5.53581823841576e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.9911372814024857</v>
+        <v>1.917912805469124e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.488450338905849</v>
+        <v>4.027312293804502e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.917912805469124e-07</v>
+        <v>0.006277116906612377</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>4.027312293804502e-06</v>
+        <v>0.1743122872436902</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.006277116906612377</v>
+        <v>0.03039679807971797</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1743122872436902</v>
+        <v>1.919822551643645</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.03039679807971797</v>
+        <v>1.881738705862599</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.9032190167658</v>
+        <v>4.951612797639631</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.881738705862599</v>
+        <v>1.017579814615442e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.951612797639631</v>
+        <v>236242713.5271201</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.017579814615442e-15</v>
+        <v>5.127869852510367e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>236242713.5271201</v>
+        <v>56.79176004246194</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>5.127869852510367e-07</v>
+        <v>0.0001789453712780226</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>56.79176004246194</v>
+        <v>8.367509599276961</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001789453712780226</v>
+        <v>1.559352401484603</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.367509599276961</v>
+        <v>0.0125288989822067</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.559352401484603</v>
+        <v>2.876580457484313</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.0125288989822067</v>
+        <v>0.9588824727470241</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.876580457484313</v>
+        <v>1.443409524217748</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9588824727470241</v>
+        <v>16</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.443409524217748</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.3194658332893597</v>
       </c>
     </row>
@@ -6663,72 +6537,66 @@
         <v>5.711649884185747e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1.076847471343362</v>
+        <v>2.294701560239209e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.1636248122382624</v>
+        <v>4.028060860214832e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2.294701560239209e-07</v>
+        <v>0.02018032851544603</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>4.028060860214832e-06</v>
+        <v>0.1867036654676724</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.02018032851544603</v>
+        <v>0.03523443797479613</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1867036654676724</v>
+        <v>1.854170094578942</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.03523443797479613</v>
+        <v>1.857242047905253</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.818200998499809</v>
+        <v>4.809379347006593</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.857242047905253</v>
+        <v>1.203495821635704e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.809379347006593</v>
+        <v>193265778.9632434</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.203495821635704e-15</v>
+        <v>6.113449817640123e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>193265778.9632434</v>
+        <v>44.95256832768899</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>6.113449817640123e-07</v>
+        <v>0.0001936028039678833</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>44.95256832768899</v>
+        <v>10.16921691401956</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001936028039678833</v>
+        <v>1.259477018916754</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>10.16921691401956</v>
+        <v>0.02002104147060629</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.259477018916754</v>
+        <v>2.639162600037618</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.02002104147060629</v>
+        <v>0.9570187207196886</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.639162600037618</v>
+        <v>1.551964911461656</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9570187207196886</v>
+        <v>19</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.551964911461656</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2726910477117219</v>
       </c>
     </row>
@@ -6743,72 +6611,66 @@
         <v>6.077278209863065e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1.257207955330064</v>
+        <v>2.632119647699471e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.5753796843838059</v>
+        <v>4.029543622735088e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2.632119647699471e-07</v>
+        <v>0.0288138438539044</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>4.029543622735088e-06</v>
+        <v>0.1882610772001722</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.0288138438539044</v>
+        <v>0.036260247225531</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1882610772001722</v>
+        <v>1.796236122324264</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.036260247225531</v>
+        <v>1.634820774930509</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.734956747592756</v>
+        <v>5.958961517373465</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.634820774930509</v>
+        <v>2.825191359471646e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>5.958961517373465</v>
+        <v>84051928.85970592</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.825191359471646e-15</v>
+        <v>1.388534065223185e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>84051928.85970592</v>
+        <v>19.95920495710697</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.388534065223185e-06</v>
+        <v>0.0001779323097451371</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>19.95920495710697</v>
+        <v>10.82592637393086</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001779323097451371</v>
+        <v>1.179137447229337</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>10.82592637393086</v>
+        <v>0.02085378802594661</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.179137447229337</v>
+        <v>2.602364886153945</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.02085378802594661</v>
+        <v>0.9559099026931522</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.602364886153945</v>
+        <v>1.736777167271625</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9559099026931522</v>
+        <v>19</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.736777167271625</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2627619123762706</v>
       </c>
     </row>
@@ -6823,72 +6685,66 @@
         <v>6.541759536805093e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1.443053281862315</v>
+        <v>2.795102318504185e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>1.307921032163677</v>
+        <v>4.031407081105598e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>2.795102318504185e-07</v>
+        <v>0.02917746822824243</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>4.031407081105598e-06</v>
+        <v>0.1772501690544695</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.02917746822824243</v>
+        <v>0.03226735542958038</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1772501690544695</v>
+        <v>1.789144668647255</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.03226735542958038</v>
+        <v>1.595548349543807</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.72577377122293</v>
+        <v>4.370831562530234</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.595548349543807</v>
+        <v>5.742867228597665e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.370831562530234</v>
+        <v>41574563.54917984</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>5.742867228597665e-15</v>
+        <v>2.807636988140157e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>41574563.54917984</v>
+        <v>9.926226323934305</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>2.807636988140157e-06</v>
+        <v>0.0001741571655943328</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>9.926226323934305</v>
+        <v>8.395042827960664</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001741571655943328</v>
+        <v>1.554068311960066</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.395042827960664</v>
+        <v>0.01227402998986361</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.554068311960066</v>
+        <v>2.858394594653942</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01227402998986361</v>
+        <v>0.9559817265550653</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.858394594653942</v>
+        <v>1.742412099330983</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9559817265550653</v>
+        <v>19</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.742412099330983</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1791665004186452</v>
       </c>
     </row>
@@ -6903,72 +6759,66 @@
         <v>6.985921075699776e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1.555991041967159</v>
+        <v>2.806320741626723e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1.651344725636462</v>
+        <v>4.033259003844124e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>2.806320741626723e-07</v>
+        <v>0.02526709782858892</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>4.033259003844124e-06</v>
+        <v>0.1662077856685986</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.02526709782858892</v>
+        <v>0.02826197082797503</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1662077856685986</v>
+        <v>1.78351250159333</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.02826197082797503</v>
+        <v>1.598425881864886</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.717190070767117</v>
+        <v>3.791163935456204</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.598425881864886</v>
+        <v>7.633290456042872e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.791163935456204</v>
+        <v>32692535.25801452</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>7.633290456042872e-15</v>
+        <v>3.577657757575266e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>32692535.25801452</v>
+        <v>8.15847504952559</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>3.577657757575266e-06</v>
+        <v>0.0001702020439996903</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>8.15847504952559</v>
+        <v>8.788526978937513</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001702020439996903</v>
+        <v>1.398834897019449</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.788526978937513</v>
+        <v>0.01314610061427911</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.398834897019449</v>
+        <v>2.788083797177621</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01314610061427911</v>
+        <v>0.9564792734906611</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.788083797177621</v>
+        <v>1.740336127923622</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9564792734906611</v>
+        <v>19</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.740336127923622</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1575008834494839</v>
       </c>
     </row>
@@ -6983,72 +6833,66 @@
         <v>7.345685642948135e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1.589835237720664</v>
+        <v>2.806320741626723e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>1.628240503213826</v>
+        <v>4.03490873423674e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2.806320741626723e-07</v>
+        <v>0.02076854860715053</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>4.03490873423674e-06</v>
+        <v>0.1613330539735794</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.02076854860715053</v>
+        <v>0.02645304202203544</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1613330539735794</v>
+        <v>1.773624093212639</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.02645304202203544</v>
+        <v>1.604739670474401</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.703392939205116</v>
+        <v>3.646887929475554</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.604739670474401</v>
+        <v>8.249204726649803e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.646887929475554</v>
+        <v>30974078.57818884</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>8.249204726649803e-15</v>
+        <v>3.766493327817707e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>30974078.57818884</v>
+        <v>7.914233755966779</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>3.766493327817707e-06</v>
+        <v>0.0001678087708206576</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>7.914233755966779</v>
+        <v>9.933848889910911</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001678087708206576</v>
+        <v>1.166784281453051</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.933848889910911</v>
+        <v>0.01655959667865678</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.166784281453051</v>
+        <v>2.616267751564345</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01655959667865678</v>
+        <v>0.956348812688655</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.616267751564345</v>
+        <v>1.73802420740799</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.956348812688655</v>
+        <v>19</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.73802420740799</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1592956147669008</v>
       </c>
     </row>
@@ -7063,72 +6907,66 @@
         <v>7.609940823974167e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1.571256963847882</v>
+        <v>2.806320741626723e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>1.416469678150087</v>
+        <v>4.036318318237179e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>2.806320741626723e-07</v>
+        <v>0.01703023035423972</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>4.036318318237179e-06</v>
+        <v>0.1606787087999308</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.01703023035423972</v>
+        <v>0.02609673904302578</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1606787087999308</v>
+        <v>1.76725950065287</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.02609673904302578</v>
+        <v>1.612621407553822</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.692596790364368</v>
+        <v>3.657401687897733</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.612621407553822</v>
+        <v>8.201845703194238e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.657401687897733</v>
+        <v>32161961.45569219</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>8.201845703194238e-15</v>
+        <v>3.633717845662209e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>32161961.45569219</v>
+        <v>8.483921650539084</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>3.633717845662209e-06</v>
+        <v>0.0001759578006579442</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>8.483921650539084</v>
+        <v>10.74326530606318</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001759578006579442</v>
+        <v>1.13363290178523</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>10.74326530606318</v>
+        <v>0.02030865334772933</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.13363290178523</v>
+        <v>2.424923308382074</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.02030865334772933</v>
+        <v>0.9549997734448153</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.424923308382074</v>
+        <v>1.735219466102733</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9549997734448153</v>
+        <v>19</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.735219466102733</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1614640690052083</v>
       </c>
     </row>
@@ -7143,72 +6981,66 @@
         <v>7.795234525430316e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1.527077251575944</v>
+        <v>2.806320741626723e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>1.157356009775725</v>
+        <v>4.037528339122882e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.806320741626723e-07</v>
+        <v>0.01449278636962149</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>4.037528339122882e-06</v>
+        <v>0.1609554009743186</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.01449278636962149</v>
+        <v>0.02610466184291166</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1609554009743186</v>
+        <v>1.764935393224417</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.02610466184291166</v>
+        <v>1.604373460919152</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.6858737511804</v>
+        <v>3.681151168036403</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.604373460919152</v>
+        <v>8.096356302627523e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.681151168036403</v>
+        <v>32920387.65826555</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>8.096356302627523e-15</v>
+        <v>3.551302026492349e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>32920387.65826555</v>
+        <v>8.774441716884581</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>3.551302026492349e-06</v>
+        <v>0.0001780987537169495</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>8.774441716884581</v>
+        <v>10.23976174682916</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001780987537169495</v>
+        <v>1.174927386826358</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>10.23976174682916</v>
+        <v>0.01867413886835965</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.174927386826358</v>
+        <v>2.528176063750999</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01867413886835965</v>
+        <v>0.9525801709792344</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.528176063750999</v>
+        <v>1.743471778763242</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9525801709792344</v>
+        <v>28</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.743471778763242</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1549536397679173</v>
       </c>
     </row>
@@ -7223,72 +7055,66 @@
         <v>7.923544253438834e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1.47379406242589</v>
+        <v>2.806320741626723e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.9175913515970979</v>
+        <v>4.038604398356694e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2.806320741626723e-07</v>
+        <v>0.01292569236264005</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>4.038604398356694e-06</v>
+        <v>0.1608742281035931</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.01292569236264005</v>
+        <v>0.0260376313831853</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1608742281035931</v>
+        <v>1.764097183998717</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.0260376313831853</v>
+        <v>1.586560668196614</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.681714272478837</v>
+        <v>3.694244149405854</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.586560668196614</v>
+        <v>8.039068485155493e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.694244149405854</v>
+        <v>32949294.01017125</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>8.039068485155493e-15</v>
+        <v>3.543107431190152e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>32949294.01017125</v>
+        <v>8.727662740522948</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>3.543107431190152e-06</v>
+        <v>0.0001939194771458849</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>8.727662740522948</v>
+        <v>9.031498962805408</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001939194771458849</v>
+        <v>1.447289561459349</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>9.031498962805408</v>
+        <v>0.01581761877590828</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.447289561459349</v>
+        <v>2.648710856476918</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01581761877590828</v>
+        <v>0.9513204177129534</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.648710856476918</v>
+        <v>1.742976537875464</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9513204177129534</v>
+        <v>28</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.742976537875464</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1398187037762509</v>
       </c>
     </row>
@@ -7303,72 +7129,66 @@
         <v>8.011992594040957e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1.420085321445067</v>
+        <v>2.806320741626723e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.7186244931107604</v>
+        <v>4.039595905272503e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2.806320741626723e-07</v>
+        <v>0.01198217084041232</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>4.039595905272503e-06</v>
+        <v>0.1604253143912037</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.01198217084041232</v>
+        <v>0.02587317613966319</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1604253143912037</v>
+        <v>1.773145595925526</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.02587317613966319</v>
+        <v>1.654617277597412</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.691746146173946</v>
+        <v>3.649061174322195</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.654617277597412</v>
+        <v>8.239381814773546e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.649061174322195</v>
+        <v>32025610.16731381</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>8.239381814773546e-15</v>
+        <v>3.652442219303559e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>32025610.16731381</v>
+        <v>8.450637146977055</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>3.652442219303559e-06</v>
+        <v>0.0001969173976525591</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>8.450637146977055</v>
+        <v>9.28327012389064</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001969173976525591</v>
+        <v>1.438968249748782</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.28327012389064</v>
+        <v>0.01697016492973804</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.438968249748782</v>
+        <v>2.641663571387191</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01697016492973804</v>
+        <v>0.9520944841116571</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.641663571387191</v>
+        <v>1.743353885969256</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9520944841116571</v>
+        <v>25</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.743353885969256</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1366781233127939</v>
       </c>
     </row>
@@ -7383,72 +7203,66 @@
         <v>8.073454826564163e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1.369169771663411</v>
+        <v>2.806320741626723e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.5585309899436464</v>
+        <v>4.040546826080621e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2.806320741626723e-07</v>
+        <v>0.01175231146613441</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>4.040546826080621e-06</v>
+        <v>0.1594095669840485</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.01175231146613441</v>
+        <v>0.02554542094699608</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1594095669840485</v>
+        <v>1.768967953295513</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.02554542094699608</v>
+        <v>1.687722394945588</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.692357359975505</v>
+        <v>3.555689655310705</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.687722394945588</v>
+        <v>8.677791683859051e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.555689655310705</v>
+        <v>30105824.37294063</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>8.677791683859051e-15</v>
+        <v>3.878382023093854e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>30105824.37294063</v>
+        <v>7.865209008115733</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>3.878382023093854e-06</v>
+        <v>0.0001814905020096121</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>7.865209008115733</v>
+        <v>10.70246101233368</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001814905020096121</v>
+        <v>1.131181376050688</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>10.70246101233368</v>
+        <v>0.02078840699207983</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.131181376050688</v>
+        <v>2.515138817287389</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.02078840699207983</v>
+        <v>0.9520421646925817</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.515138817287389</v>
+        <v>1.741190762804211</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9520421646925817</v>
+        <v>25</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.741190762804211</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1476533771209628</v>
       </c>
     </row>
@@ -7463,72 +7277,66 @@
         <v>8.117545370775539e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1.320133530239423</v>
+        <v>2.806320741626723e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.4251277987001756</v>
+        <v>4.041522768515236e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>2.806320741626723e-07</v>
+        <v>0.01244699423324585</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>4.041522768515236e-06</v>
+        <v>0.1577413395571195</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.01244699423324585</v>
+        <v>0.02503445980802372</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1577413395571195</v>
+        <v>1.766604561974444</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.02503445980802372</v>
+        <v>1.67777596852227</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.689057542026896</v>
+        <v>3.49901177918746</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.67777596852227</v>
+        <v>8.961198712992589e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.49901177918746</v>
+        <v>28465634.61576439</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>8.961198712992589e-15</v>
+        <v>4.092719668523697e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>28465634.61576439</v>
+        <v>7.261190800513337</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>4.092719668523697e-06</v>
+        <v>0.0001837767046861802</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>7.261190800513337</v>
+        <v>11.43513177182268</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001837767046861802</v>
+        <v>1.070036220117552</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>11.43513177182268</v>
+        <v>0.02403105331445385</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.070036220117552</v>
+        <v>2.327963409926448</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.02403105331445385</v>
+        <v>0.9504440847744486</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.327963409926448</v>
+        <v>1.752297753187571</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9504440847744486</v>
+        <v>25</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.752297753187571</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1528819378697592</v>
       </c>
     </row>
@@ -7543,72 +7351,66 @@
         <v>8.148615241349344e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1.271606602386846</v>
+        <v>2.806320741626723e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>0.3098084480858825</v>
+        <v>4.042583802233999e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.806320741626723e-07</v>
+        <v>0.01363099835756655</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>4.042583802233999e-06</v>
+        <v>0.1559859156231554</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.01363099835756655</v>
+        <v>0.0245151493491169</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1559859156231554</v>
+        <v>1.758896710377323</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.0245151493491169</v>
+        <v>1.62103175597347</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.682505348581241</v>
+        <v>3.487889423029648</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.62103175597347</v>
+        <v>9.018441674193661e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.487889423029648</v>
+        <v>27849803.79888964</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>9.018441674193661e-15</v>
+        <v>4.165932989306957e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>27849803.79888964</v>
+        <v>6.994807720634787</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>4.165932989306957e-06</v>
+        <v>0.000184446817813335</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>6.994807720634787</v>
+        <v>10.58945370493533</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.000184446817813335</v>
+        <v>1.144765171662427</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>10.58945370493533</v>
+        <v>0.02068322607651656</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.144765171662427</v>
+        <v>2.50137452201684</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.02068322607651656</v>
+        <v>0.9502370532866603</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.50137452201684</v>
+        <v>1.753887184647465</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9502370532866603</v>
+        <v>12</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.753887184647465</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1455055453983753</v>
       </c>
     </row>
@@ -7623,72 +7425,66 @@
         <v>8.16623580681387e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>1.224465276837315</v>
+        <v>2.806320741626723e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>0.2123659779139113</v>
+        <v>4.043745645328309e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>2.806320741626723e-07</v>
+        <v>0.01478413215245482</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>4.043745645328309e-06</v>
+        <v>0.1546162352989353</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.01478413215245482</v>
+        <v>0.02412291278251174</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1546162352989353</v>
+        <v>1.763912499837267</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.02412291278251174</v>
+        <v>1.570521613357782</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.688499629110797</v>
+        <v>3.506210117931009</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.570521613357782</v>
+        <v>8.924441344923508e-15</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>3.506210117931009</v>
+        <v>28228065.40124945</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>8.924441344923508e-15</v>
+        <v>4.11481868063619e-06</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>28228065.40124945</v>
+        <v>7.111206161360824</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>4.11481868063619e-06</v>
+        <v>0.0002058120160458007</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>7.111206161360824</v>
+        <v>9.541442263760882</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0002058120160458007</v>
+        <v>1.403362545445143</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>9.541442263760882</v>
+        <v>0.01873694492351929</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.403362545445143</v>
+        <v>2.554075160458751</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.01873694492351929</v>
+        <v>0.9509968260559106</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.554075160458751</v>
+        <v>1.746547480712335</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9509968260559106</v>
+        <v>20</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.746547480712335</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.1346120741401367</v>
       </c>
     </row>
@@ -7703,72 +7499,66 @@
         <v>8.168988435120376e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1.180724545130457</v>
+        <v>2.806320741626723e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>0.1349111177666962</v>
+        <v>4.044993422137766e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>2.806320741626723e-07</v>
+        <v>0.01568737577315043</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>4.044993422137766e-06</v>
+        <v>0.1538331212470175</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.01568737577315043</v>
+        <v>0.02390937882072065</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1538331212470175</v>
+        <v>1.758472829273056</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.02390937882072065</v>
+        <v>1.513737337518045</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.68995937662376</v>
+        <v>3.597722880442808</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.513737337518045</v>
+        <v>8.476205952145797e-15</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3.597722880442808</v>
+        <v>29431532.2185324</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>8.476205952145797e-15</v>
+        <v>3.944961795691338e-06</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>29431532.2185324</v>
+        <v>7.342217490936056</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>3.944961795691338e-06</v>
+        <v>0.0002291311547815836</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>7.342217490936056</v>
+        <v>9.679487086125219</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0002291311547815836</v>
+        <v>1.470657489791412</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>9.679487086125219</v>
+        <v>0.02146786390282818</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.470657489791412</v>
+        <v>2.453988156431395</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.02146786390282818</v>
+        <v>0.9518197245684493</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.453988156431395</v>
+        <v>1.742053623445314</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9518197245684493</v>
+        <v>24</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.742053623445314</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.1325878669420212</v>
       </c>
     </row>
@@ -7783,72 +7573,66 @@
         <v>8.156817856117834e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1.141929059608579</v>
+        <v>2.806320741626723e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>0.07738992144034151</v>
+        <v>4.04630464991036e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>2.806320741626723e-07</v>
+        <v>0.0163893935712149</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>4.04630464991036e-06</v>
+        <v>0.1535972658617123</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.0163893935712149</v>
+        <v>0.02385997565706586</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1535972658617123</v>
+        <v>1.763388818972952</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.02385997565706586</v>
+        <v>1.484535566889209</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.696599426959096</v>
+        <v>3.800277282892405</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.484535566889209</v>
+        <v>7.383349526103602e-15</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3.800277282892405</v>
+        <v>33792797.85395565</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>7.383349526103602e-15</v>
+        <v>3.439948822791135e-06</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>33792797.85395565</v>
+        <v>8.431439520579797</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>3.439948822791135e-06</v>
+        <v>0.0002254620242219048</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>8.431439520579797</v>
+        <v>11.77732103068904</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0002254620242219048</v>
+        <v>1.12456681031055</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>11.77732103068904</v>
+        <v>0.03127277560247104</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.12456681031055</v>
+        <v>2.24496700580596</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.03127277560247104</v>
+        <v>0.9509970607630854</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.24496700580596</v>
+        <v>1.748062498406268</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9509970607630854</v>
+        <v>24</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.748062498406268</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.1486307644761574</v>
       </c>
     </row>
@@ -7863,72 +7647,66 @@
         <v>8.131667880280105e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>1.108134806030465</v>
+        <v>2.806320741626723e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>0.03636991434999626</v>
+        <v>4.047666500968161e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>2.806320741626723e-07</v>
+        <v>0.01701382936480413</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>4.047666500968161e-06</v>
+        <v>0.1537810672490243</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.01701382936480413</v>
+        <v>0.02393782238799313</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1537810672490243</v>
+        <v>1.826269101592962</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.02393782238799313</v>
+        <v>1.720000801184365</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.780122533891899</v>
+        <v>3.23746110135723</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.720000801184365</v>
+        <v>6.978930108408919e-15</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.23746110135723</v>
+        <v>36745194.80043087</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>6.978930108408919e-15</v>
+        <v>3.236134205554162e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>36745194.80043087</v>
+        <v>9.423016622012801</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>3.236134205554162e-06</v>
+        <v>0.0002361099229257267</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>9.423016622012801</v>
+        <v>13.51195908051062</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0002361099229257267</v>
+        <v>0.9797047367626743</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>13.51195908051062</v>
+        <v>0.04310730597615785</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>0.9797047367626743</v>
+        <v>1.976528462619898</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.04310730597615785</v>
+        <v>0.9523678346490836</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>1.976528462619898</v>
+        <v>1.667917972973834</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9523678346490836</v>
+        <v>21</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.667917972973834</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.1602176482827346</v>
       </c>
     </row>
@@ -7943,72 +7721,66 @@
         <v>8.096829780588585e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>1.078211933974368</v>
+        <v>2.806320741626723e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>0.006990556909470591</v>
+        <v>4.049069199826283e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2.806320741626723e-07</v>
+        <v>0.01753415372024465</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>4.049069199826283e-06</v>
+        <v>0.1543004791739316</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.01753415372024465</v>
+        <v>0.02411606603084371</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1543004791739316</v>
+        <v>1.875537495340975</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.02411606603084371</v>
+        <v>1.565534521338184</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.851621198858505</v>
+        <v>3.41996617618692</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.565534521338184</v>
+        <v>6.253949143969194e-15</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>3.41996617618692</v>
+        <v>40081594.05823065</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>6.253949143969194e-15</v>
+        <v>3.000075284949611e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>40081594.05823065</v>
+        <v>10.04718307383207</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>3.000075284949611e-06</v>
+        <v>0.0002422784141127638</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>10.04718307383207</v>
+        <v>12.66431839371538</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0002422784141127638</v>
+        <v>1.091399268602333</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>12.66431839371538</v>
+        <v>0.03885781384777438</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.091399268602333</v>
+        <v>2.171975315078103</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.03885781384777438</v>
+        <v>0.9535406026702336</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.171975315078103</v>
+        <v>1.515805202956182</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9535406026702336</v>
+        <v>21</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.515805202956182</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.1570975994141132</v>
       </c>
     </row>
@@ -8023,72 +7795,66 @@
         <v>8.05583567611075e-08</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>1.050352572790653</v>
+        <v>2.806320741626723e-07</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-0.01557791903330941</v>
+        <v>4.050509520290234e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>2.806320741626723e-07</v>
+        <v>0.01818711200961604</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>4.050509520290234e-06</v>
+        <v>0.1550095873750422</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0.01818711200961604</v>
+        <v>0.02435870882986818</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.1550095873750422</v>
+        <v>1.878718156316352</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.02435870882986818</v>
+        <v>1.555790599808104</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.857010250396857</v>
+        <v>4.22550133556401</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1.555790599808104</v>
+        <v>3.970788156939504e-15</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>4.22550133556401</v>
+        <v>62359422.90406498</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>3.970788156939504e-15</v>
+        <v>1.927334705763411e-06</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>62359422.90406498</v>
+        <v>15.44119447498298</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>1.927334705763411e-06</v>
+        <v>0.0002582541632568789</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>15.44119447498298</v>
+        <v>11.12221484566643</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0002582541632568789</v>
+        <v>1.350981983720683</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>11.12221484566643</v>
+        <v>0.03194698599877048</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.350981983720683</v>
+        <v>2.296099175350491</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.03194698599877048</v>
+        <v>0.953983174531255</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>2.296099175350491</v>
+        <v>1.528056919087579</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.953983174531255</v>
+        <v>21</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.528056919087579</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.166485298131122</v>
       </c>
     </row>
@@ -8103,72 +7869,66 @@
         <v>8.011297917911841e-08</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>1.02227530726031</v>
+        <v>2.806320741626723e-07</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-0.03614631448474181</v>
+        <v>4.052012618958118e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>2.806320741626723e-07</v>
+        <v>0.01930997369412223</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>4.052012618958118e-06</v>
+        <v>0.1558847004545969</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0.01930997369412223</v>
+        <v>0.02467267791246191</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.1558847004545969</v>
+        <v>1.884737013727258</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.02467267791246191</v>
+        <v>1.599171651856271</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.869080417933306</v>
+        <v>5.068542661693033</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1.599171651856271</v>
+        <v>1.881744803683378e-15</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>5.068542661693033</v>
+        <v>125450295.8849446</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>1.881744803683378e-15</v>
+        <v>9.556792921077386e-07</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>125450295.8849446</v>
+        <v>29.61447959754585</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>9.556792921077386e-07</v>
+        <v>0.0002533207406362453</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>29.61447959754585</v>
+        <v>9.735408744594753</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0002533207406362453</v>
+        <v>1.60861177758175</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>9.735408744594753</v>
+        <v>0.02400927962120969</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.60861177758175</v>
+        <v>2.474354034767501</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.02400927962120969</v>
+        <v>0.9527707441569111</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>2.474354034767501</v>
+        <v>1.516634028530512</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9527707441569111</v>
+        <v>21</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.516634028530512</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.216903774107088</v>
       </c>
     </row>
@@ -8183,72 +7943,66 @@
         <v>7.965275718695867e-08</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.9919508302522968</v>
+        <v>2.806320741626723e-07</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-0.0587213847961725</v>
+        <v>4.053606810017435e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>2.806320741626723e-07</v>
+        <v>0.02057707350715703</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>4.053606810017435e-06</v>
+        <v>0.1568921615798875</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0.02057707350715703</v>
+        <v>0.02503832324629095</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.1568921615798875</v>
+        <v>1.898316108168502</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.02503832324629095</v>
+        <v>1.738439770155212</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.889746388381323</v>
+        <v>5.587060947900607</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1.738439770155212</v>
+        <v>6.926935107426504e-16</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>5.587060947900607</v>
+        <v>331286238.2780029</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>6.926935107426504e-16</v>
+        <v>3.633294640299438e-07</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>331286238.2780029</v>
+        <v>76.0235087977605</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>3.633294640299438e-07</v>
+        <v>0.0001932582609079291</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>76.0235087977605</v>
+        <v>9.159665680923968</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0001932582609079291</v>
+        <v>1.432225021208055</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>9.159665680923968</v>
+        <v>0.01621426670424323</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.432225021208055</v>
+        <v>2.766800397475202</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.01621426670424323</v>
+        <v>0.9538403385339915</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>2.766800397475202</v>
+        <v>1.465189151128006</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9538403385339915</v>
+        <v>32</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.465189151128006</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.3681620389331898</v>
       </c>
     </row>
@@ -8263,72 +8017,66 @@
         <v>7.919127176854498e-08</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.9588916360432679</v>
+        <v>2.806320741626723e-07</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-0.08412458528140387</v>
+        <v>4.055283071167597e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>2.806320741626723e-07</v>
+        <v>0.0216120251885559</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>4.055283071167597e-06</v>
+        <v>0.157887328006469</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0.0216120251885559</v>
+        <v>0.02539532359485827</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.157887328006469</v>
+        <v>1.901519909627755</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.02539532359485827</v>
+        <v>1.967165804308127</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.906398603615042</v>
+        <v>4.439643329810565</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1.967165804308127</v>
+        <v>3.91982601862142e-16</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>4.439643329810565</v>
+        <v>550935588.2726947</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>3.91982601862142e-16</v>
+        <v>2.172666084932968e-07</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>550935588.2726947</v>
+        <v>118.9784879335749</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>2.172666084932968e-07</v>
+        <v>0.0001693806552109095</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>118.9784879335749</v>
+        <v>10.3015331101079</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0001693806552109095</v>
+        <v>1.177757254350817</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>10.3015331101079</v>
+        <v>0.01797494350085067</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.177757254350817</v>
+        <v>2.768330278176365</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.01797494350085067</v>
+        <v>0.9551179616852973</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>2.768330278176365</v>
+        <v>1.394338449980011</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9551179616852973</v>
+        <v>32</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.394338449980011</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.5023923424604767</v>
       </c>
     </row>
@@ -8343,72 +8091,66 @@
         <v>7.872567491884819e-08</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.923585879282715</v>
+        <v>2.806320741626723e-07</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-0.1111661786525571</v>
+        <v>4.057031651673635e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>2.806320741626723e-07</v>
+        <v>0.02273247257953563</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>4.057031651673635e-06</v>
+        <v>0.1588662917450095</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0.02273247257953563</v>
+        <v>0.02575507591346466</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.1588662917450095</v>
+        <v>1.905993306233232</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.02575507591346466</v>
+        <v>2.367918154379292</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.916665736877998</v>
+        <v>4.137119128340764</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>2.367918154379292</v>
+        <v>3.75272759503865e-16</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>4.137119128340764</v>
+        <v>570734477.4344883</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>3.75272759503865e-16</v>
+        <v>2.105576188632626e-07</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>570734477.4344883</v>
+        <v>122.2405394923034</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>2.105576188632626e-07</v>
+        <v>0.0001646155559834648</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>122.2405394923034</v>
+        <v>10.0911848235434</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001646155559834648</v>
+        <v>1.180829370444545</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>10.0911848235434</v>
+        <v>0.01676313313120495</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.180829370444545</v>
+        <v>2.838146314892504</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.01676313313120495</v>
+        <v>0.9577131950835778</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>2.838146314892504</v>
+        <v>1.347100334342544</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9577131950835778</v>
+        <v>34</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.347100334342544</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.4903606826996</v>
       </c>
     </row>
@@ -8423,72 +8165,66 @@
         <v>7.824155786357988e-08</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.8865042207994536</v>
+        <v>2.806320741626723e-07</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-0.1389546688174699</v>
+        <v>4.058869901471006e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>2.806320741626723e-07</v>
+        <v>0.02412145836621867</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>4.058869901471006e-06</v>
+        <v>0.1598559283787832</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>0.02412145836621867</v>
+        <v>0.02613563200909328</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.1598559283787832</v>
+        <v>1.901449809019953</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.02613563200909328</v>
+        <v>2.060488711681607</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.911869970954234</v>
+        <v>4.49035649011662</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>2.060488711681607</v>
+        <v>4.255876949627195e-16</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>4.49035649011662</v>
+        <v>505704778.5769209</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>4.255876949627195e-16</v>
+        <v>2.377242396436341e-07</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>505704778.5769209</v>
+        <v>108.8386578436522</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>2.377242396436341e-07</v>
+        <v>0.0001578527906150591</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>108.8386578436522</v>
+        <v>9.067300667729938</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001578527906150591</v>
+        <v>1.30477786647138</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>9.067300667729938</v>
+        <v>0.0129780157828788</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.30477786647138</v>
+        <v>2.997105967176761</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.0129780157828788</v>
+        <v>0.9575446799033314</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>2.997105967176761</v>
+        <v>1.346675599441619</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9575446799033314</v>
+        <v>43</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.346675599441619</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.476534544997554</v>
       </c>
     </row>
@@ -8865,7 +8601,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.360939290010807</v>
+        <v>1.352872642016659</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.098292536666353</v>
@@ -8954,7 +8690,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.391921586112759</v>
+        <v>1.381557506195354</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.088648951455688</v>
@@ -9043,7 +8779,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.390177287808225</v>
+        <v>1.380758300859456</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.083601769772672</v>
@@ -9132,7 +8868,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.355216460832801</v>
+        <v>1.348249552974007</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.054245773117093</v>
@@ -9221,7 +8957,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.393664679643408</v>
+        <v>1.380773010548459</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.044130215425507</v>
@@ -9310,7 +9046,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.391709114463354</v>
+        <v>1.381046169185687</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.03921484941284</v>
@@ -9399,7 +9135,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.427506973920167</v>
+        <v>1.413663328077451</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.951734371114433</v>
@@ -9488,7 +9224,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.433618450543954</v>
+        <v>1.416095945429497</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.021247170570384</v>
@@ -9577,7 +9313,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.434670400657357</v>
+        <v>1.415898471036147</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.084968088631878</v>
@@ -9666,7 +9402,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.386030837505125</v>
+        <v>1.370596904394979</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.01320471653474</v>
@@ -9755,7 +9491,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.406354724605151</v>
+        <v>1.38863772980318</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.896607590662692</v>
@@ -9844,7 +9580,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.416850844687319</v>
+        <v>1.399570326503483</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.936971990936826</v>
@@ -9933,7 +9669,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.409021491288992</v>
+        <v>1.388573173865685</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.89815776281809</v>
@@ -10022,7 +9758,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.400521440078906</v>
+        <v>1.382177866529045</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.972726375916338</v>
@@ -10111,7 +9847,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.412265189758052</v>
+        <v>1.393132268425302</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.016451090742394</v>
@@ -10200,7 +9936,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.393108967596288</v>
+        <v>1.382126153040461</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.908039246932619</v>
@@ -10289,7 +10025,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.390681716579138</v>
+        <v>1.378059169593973</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.924450578777</v>
@@ -10378,7 +10114,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.400685836448336</v>
+        <v>1.384927968026697</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.910055747454431</v>
@@ -10467,7 +10203,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.392747667021004</v>
+        <v>1.379790177137973</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.893572447016405</v>
@@ -10556,7 +10292,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.394049363755025</v>
+        <v>1.381788117609657</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.891006957814429</v>
@@ -10645,7 +10381,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.395721691237593</v>
+        <v>1.371785177391726</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.959513575630519</v>
@@ -10734,7 +10470,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.348169182124225</v>
+        <v>1.339455917054438</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.922385519626913</v>
@@ -10823,7 +10559,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.3463682132197</v>
+        <v>1.338543006261526</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.933573981318606</v>
@@ -10912,7 +10648,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.33904045028731</v>
+        <v>1.32884964645325</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.936126878544115</v>
@@ -11001,7 +10737,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.338431707980798</v>
+        <v>1.331389594202906</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.956507693587177</v>
@@ -11090,7 +10826,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.34124966899495</v>
+        <v>1.331788465509386</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.000089825899885</v>
@@ -11179,7 +10915,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.34786145592544</v>
+        <v>1.338573304269336</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.999444132215756</v>
@@ -11268,7 +11004,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.344813619921662</v>
+        <v>1.3350086583147</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.981890376654829</v>
@@ -11357,7 +11093,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.317502509972381</v>
+        <v>1.306099686801169</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.979162731976676</v>
@@ -11446,7 +11182,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.34297063618123</v>
+        <v>1.329939605226627</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.965535309184403</v>
@@ -11535,7 +11271,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.348212837829962</v>
+        <v>1.332795673224564</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.007888708536928</v>
@@ -11624,7 +11360,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.348259899134116</v>
+        <v>1.33597617981743</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.027531032478329</v>
@@ -11713,7 +11449,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.328537598691244</v>
+        <v>1.317175902714107</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.865069110395747</v>
@@ -11802,7 +11538,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.343724959606965</v>
+        <v>1.332593309383668</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.97698825762421</v>
@@ -11891,7 +11627,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.348427892409254</v>
+        <v>1.333964427536428</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.006215441274003</v>
@@ -11980,7 +11716,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.378678365361198</v>
+        <v>1.359020570979712</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.963354231994791</v>
@@ -12069,7 +11805,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.386558800513526</v>
+        <v>1.368797826880119</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.989845403504388</v>
@@ -12158,7 +11894,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.365369823039381</v>
+        <v>1.347095617977449</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.967882373464513</v>
@@ -12247,7 +11983,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.381593641001304</v>
+        <v>1.360270089456985</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.935234459081368</v>
@@ -12336,7 +12072,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.422367715433094</v>
+        <v>1.397300453730009</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.981502993861468</v>
@@ -12425,7 +12161,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.435747499845831</v>
+        <v>1.415129326926603</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.015644573519835</v>
@@ -12514,7 +12250,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.440441872871858</v>
+        <v>1.419731781595151</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.009978575763588</v>
@@ -12603,7 +12339,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.411945478079205</v>
+        <v>1.395771991401167</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.081303744617346</v>
@@ -12692,7 +12428,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.438775372177293</v>
+        <v>1.425642462304309</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.012397829837733</v>
@@ -12781,7 +12517,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.444255419380014</v>
+        <v>1.430000541263589</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.022578693625095</v>
@@ -12870,7 +12606,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.447641687654455</v>
+        <v>1.435862967803134</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.061777562723316</v>
@@ -12959,7 +12695,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.44191211332182</v>
+        <v>1.426413217898089</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.023074216345906</v>
@@ -13048,7 +12784,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.504037665261819</v>
+        <v>1.481803895293876</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.993681163192147</v>
@@ -13137,7 +12873,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.50758960073431</v>
+        <v>1.468594569106858</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.033350645268053</v>
@@ -13226,7 +12962,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.452356745820787</v>
+        <v>1.433146392624724</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.986690586962343</v>
@@ -13315,7 +13051,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.447436634128938</v>
+        <v>1.431713213495926</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.98231974714727</v>
@@ -13404,7 +13140,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.442982084909675</v>
+        <v>1.425521017673473</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.038446154188147</v>
@@ -13493,7 +13229,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.474409522783412</v>
+        <v>1.457943987134655</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.019823881592785</v>
@@ -13582,7 +13318,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.427634680496567</v>
+        <v>1.417956213192676</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.06111323103564</v>
@@ -13671,7 +13407,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.419777452029978</v>
+        <v>1.408548135284967</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.995259708538054</v>
@@ -13760,7 +13496,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.404262216491714</v>
+        <v>1.393982837071688</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.963510701015306</v>
@@ -13849,7 +13585,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.404661309073789</v>
+        <v>1.386361668178638</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.999181643130661</v>
@@ -13938,7 +13674,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.432834229487745</v>
+        <v>1.414793427480251</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.946149870961887</v>
@@ -14027,7 +13763,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.385056454108462</v>
+        <v>1.372021052041353</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.981463804780726</v>
@@ -14116,7 +13852,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.387846893949394</v>
+        <v>1.373989051275057</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.941675976563331</v>
@@ -14205,7 +13941,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.358657933307984</v>
+        <v>1.344080100775642</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.014014563600394</v>
@@ -14294,7 +14030,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.36455294618375</v>
+        <v>1.338646289981805</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.980111734752877</v>
@@ -14383,7 +14119,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.321768730969957</v>
+        <v>1.313757701952997</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.017848192672384</v>
@@ -14472,7 +14208,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.347122766297405</v>
+        <v>1.340050854124818</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.06361980446715</v>
@@ -14561,7 +14297,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.347456259226965</v>
+        <v>1.342090018672729</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.038327448087554</v>
@@ -14650,7 +14386,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.352640025465626</v>
+        <v>1.347994872968676</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.055148995947839</v>
@@ -14739,7 +14475,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.359344876694888</v>
+        <v>1.352489794308243</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.026057942128536</v>
@@ -14828,7 +14564,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.358535888207537</v>
+        <v>1.350419053087909</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.055398623271969</v>
@@ -14917,7 +14653,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.351415322608421</v>
+        <v>1.343995900528138</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.071077019193878</v>
@@ -15006,7 +14742,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.348172565991329</v>
+        <v>1.336653891864104</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.029385696880081</v>
@@ -15095,7 +14831,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.345920111322399</v>
+        <v>1.331046226316776</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.08107709727186</v>
@@ -15184,7 +14920,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.33649352090085</v>
+        <v>1.327666306962099</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.967000118109714</v>
@@ -15273,7 +15009,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.340798754300794</v>
+        <v>1.32407721769576</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.091096211260897</v>
@@ -15362,7 +15098,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.37209303799073</v>
+        <v>1.354575505923189</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.033632464549695</v>
@@ -15451,7 +15187,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.340350667491122</v>
+        <v>1.32333785900604</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.06632907294013</v>
@@ -15540,7 +15276,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.356931272155206</v>
+        <v>1.340968550764898</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.132517875761584</v>
@@ -15629,7 +15365,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.393144864873782</v>
+        <v>1.370729552301303</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.861294729100927</v>
@@ -15718,7 +15454,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.402885052708229</v>
+        <v>1.381357907836181</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.000986943176561</v>
@@ -15807,7 +15543,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.400048335742525</v>
+        <v>1.380997532269066</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.008661583126776</v>
@@ -15896,7 +15632,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.367519266384288</v>
+        <v>1.348055950422075</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.042405390299058</v>
@@ -15985,7 +15721,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.368651642105795</v>
+        <v>1.346971894257862</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.011965326849466</v>
@@ -16074,7 +15810,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.368360979247021</v>
+        <v>1.347786519741284</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.009722924047709</v>
@@ -16163,7 +15899,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.371269403701414</v>
+        <v>1.348707365493207</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.011895508139451</v>
@@ -16252,7 +15988,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.418285622492803</v>
+        <v>1.391880246703699</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.085608383700474</v>
@@ -16341,7 +16077,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.379457549690146</v>
+        <v>1.362264740512384</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.034521246548613</v>
@@ -16430,7 +16166,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.384700716326647</v>
+        <v>1.364806172746365</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.11536011855731</v>
@@ -16519,7 +16255,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.393211807083683</v>
+        <v>1.373497846751602</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.061926813346437</v>
@@ -16805,7 +16541,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.61159143062401</v>
+        <v>1.557303117622026</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.405669528432071</v>
@@ -16894,7 +16630,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.616903082485865</v>
+        <v>1.559842326703758</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.382491416264169</v>
@@ -16983,7 +16719,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.622120667519736</v>
+        <v>1.561576145902116</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.411970322495718</v>
@@ -17072,7 +16808,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.620287103223134</v>
+        <v>1.561263337262178</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.690913245716275</v>
@@ -17161,7 +16897,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.627525582126345</v>
+        <v>1.569968524153517</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.692736569345112</v>
@@ -17250,7 +16986,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.623350765434564</v>
+        <v>1.566899383399015</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.329809318132178</v>
@@ -17339,7 +17075,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.625803681346852</v>
+        <v>1.567834301040454</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.807127672606043</v>
@@ -17428,7 +17164,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.635136522812215</v>
+        <v>1.573440560641771</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.62130635113271</v>
@@ -17517,7 +17253,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.637258092643226</v>
+        <v>1.577676565363022</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.736598051232801</v>
@@ -17606,7 +17342,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.603976033534962</v>
+        <v>1.546126919719929</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.474419809116261</v>
@@ -17695,7 +17431,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.596700242227518</v>
+        <v>1.540247861589276</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.513512647693197</v>
@@ -17784,7 +17520,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.593696346341756</v>
+        <v>1.540842899192098</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.39837075097987</v>
@@ -17873,7 +17609,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.590322886007735</v>
+        <v>1.536501873472315</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.319581371406484</v>
@@ -17962,7 +17698,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.570500112637408</v>
+        <v>1.513525604413847</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.316798419000823</v>
@@ -18051,7 +17787,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.557331394375692</v>
+        <v>1.503126652662364</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.311544438404967</v>
@@ -18140,7 +17876,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.533578549939576</v>
+        <v>1.496419138184808</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.372211283962684</v>
@@ -18229,7 +17965,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.515963839773308</v>
+        <v>1.481205914898151</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.352857142645011</v>
@@ -18318,7 +18054,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.521670251196038</v>
+        <v>1.489090190172752</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.359028200598809</v>
@@ -18407,7 +18143,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.517515170212254</v>
+        <v>1.484288415798803</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.428296466749402</v>
@@ -18496,7 +18232,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.50902975247</v>
+        <v>1.477869495294969</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.329030779217871</v>
@@ -18585,7 +18321,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.503185963646792</v>
+        <v>1.475208455493594</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.436645188719574</v>
@@ -18674,7 +18410,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.495542961410969</v>
+        <v>1.467723668688437</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.434459540389089</v>
@@ -18763,7 +18499,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.484256532763743</v>
+        <v>1.461191577182926</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.433474747096578</v>
@@ -18852,7 +18588,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.478655466017409</v>
+        <v>1.450145590155857</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.518008997733264</v>
@@ -18941,7 +18677,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.496919100301272</v>
+        <v>1.47043204073295</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.828219450034437</v>
@@ -19030,7 +18766,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.499893719305459</v>
+        <v>1.472194937303992</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.888878717483447</v>
@@ -19119,7 +18855,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.510059637291687</v>
+        <v>1.482572395713113</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.945094852663479</v>
@@ -19208,7 +18944,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.508546801992715</v>
+        <v>1.484267311209431</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.747503435439238</v>
@@ -19297,7 +19033,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.517139526786132</v>
+        <v>1.494608555955171</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.820475216491606</v>
@@ -19386,7 +19122,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.52258405206927</v>
+        <v>1.497781750426922</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.953296897652585</v>
@@ -19475,7 +19211,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.536027858276168</v>
+        <v>1.504556196994167</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.018472456162363</v>
@@ -19564,7 +19300,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.547935920825633</v>
+        <v>1.516727748892934</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.113076204002168</v>
@@ -19653,7 +19389,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.534236095467391</v>
+        <v>1.501099177910061</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.070466444060134</v>
@@ -19742,7 +19478,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.539464513740259</v>
+        <v>1.505824433257839</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.940666419006381</v>
@@ -19831,7 +19567,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.554653847528319</v>
+        <v>1.512976238888813</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.267435202665955</v>
@@ -19920,7 +19656,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.552217718462496</v>
+        <v>1.512514148666492</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.286426650989942</v>
@@ -20009,7 +19745,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.560278598616526</v>
+        <v>1.51861482965584</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.320289539862866</v>
@@ -20098,7 +19834,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.566481557741369</v>
+        <v>1.524786660267413</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.055992846120054</v>
@@ -20187,7 +19923,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.574396249540832</v>
+        <v>1.535827206037178</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.164229075193031</v>
@@ -20276,7 +20012,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.583653996885204</v>
+        <v>1.53975002537296</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.299818584770967</v>
@@ -20365,7 +20101,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.592798789954373</v>
+        <v>1.547048684006863</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.21296865383375</v>
@@ -20454,7 +20190,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.588014411356222</v>
+        <v>1.537374374722941</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.389404092072822</v>
@@ -20543,7 +20279,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.584332302027147</v>
+        <v>1.53324759768051</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.312328177944389</v>
@@ -20632,7 +20368,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.578255857843458</v>
+        <v>1.530697137382924</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.105437450074694</v>
@@ -20721,7 +20457,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.591636127235808</v>
+        <v>1.543840598640531</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.327206871894787</v>
@@ -20810,7 +20546,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.590824966164695</v>
+        <v>1.540097599684637</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.058833440217355</v>
@@ -20899,7 +20635,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.584081837975574</v>
+        <v>1.533123326659483</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.205989613626676</v>
@@ -20988,7 +20724,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.586791966030639</v>
+        <v>1.53534993442035</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.463731502156467</v>
@@ -21077,7 +20813,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.589477818371336</v>
+        <v>1.541323418460837</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.365886283771263</v>
@@ -21166,7 +20902,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.583629033822078</v>
+        <v>1.539130158821642</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.088883879956324</v>
@@ -21255,7 +20991,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.578424488903027</v>
+        <v>1.534275273006347</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.229971327601883</v>
@@ -21344,7 +21080,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.561115207098189</v>
+        <v>1.521245851170179</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.904508417429719</v>
@@ -21433,7 +21169,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.548706109870247</v>
+        <v>1.512784617914201</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.840510314656202</v>
@@ -21522,7 +21258,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.547195870109461</v>
+        <v>1.511848424938173</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.575864133011307</v>
@@ -21611,7 +21347,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.535796058690867</v>
+        <v>1.501437229297495</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.797912765595072</v>
@@ -21700,7 +21436,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.537821071294294</v>
+        <v>1.5077699415581</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.964497186844821</v>
@@ -21789,7 +21525,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.538168323299057</v>
+        <v>1.504824517921204</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.858207924002636</v>
@@ -21878,7 +21614,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.53787587922739</v>
+        <v>1.507350804238875</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.964671324721283</v>
@@ -21967,7 +21703,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.542682970997764</v>
+        <v>1.511325687224937</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.905862811000993</v>
@@ -22056,7 +21792,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.545825683836435</v>
+        <v>1.511665370265545</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.006533845540766</v>
@@ -22145,7 +21881,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.53626941240612</v>
+        <v>1.498775368415074</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.977052558434393</v>
@@ -22234,7 +21970,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.540592799705366</v>
+        <v>1.499040095714195</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.541626158769898</v>
@@ -22323,7 +22059,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.546223446518294</v>
+        <v>1.51471009575637</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.763171603010426</v>
@@ -22412,7 +22148,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.547029880734173</v>
+        <v>1.515386797767958</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.754745554501945</v>
@@ -22501,7 +22237,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.562751418164267</v>
+        <v>1.535696109210985</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.745315706870439</v>
@@ -22590,7 +22326,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.569137653173178</v>
+        <v>1.54586107064088</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.949034331349162</v>
@@ -22679,7 +22415,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.592752480249868</v>
+        <v>1.559335915401696</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.980005196896504</v>
@@ -22768,7 +22504,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.593480877572472</v>
+        <v>1.562351827289313</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.975025643996582</v>
@@ -22857,7 +22593,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.599727078127279</v>
+        <v>1.568298509780276</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.783983166333025</v>
@@ -22946,7 +22682,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.596758578219769</v>
+        <v>1.564163190156298</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.90566141228445</v>
@@ -23035,7 +22771,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.597083933798594</v>
+        <v>1.561657138060356</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.041235855224315</v>
@@ -23124,7 +22860,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.591497677748382</v>
+        <v>1.56517525429189</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.568142521230748</v>
@@ -23213,7 +22949,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.588029811941432</v>
+        <v>1.555248771097521</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.937751540320724</v>
@@ -23302,7 +23038,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.587061483521806</v>
+        <v>1.552019555984546</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.981061572522617</v>
@@ -23391,7 +23127,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.567962540552096</v>
+        <v>1.538020879259919</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.938574797813446</v>
@@ -23480,7 +23216,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.559724329162673</v>
+        <v>1.533302678348384</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.771774789884512</v>
@@ -23569,7 +23305,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.562148101145029</v>
+        <v>1.542364485269382</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.948881589705384</v>
@@ -23658,7 +23394,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.55755301865382</v>
+        <v>1.53215286487334</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.106746289524662</v>
@@ -23747,7 +23483,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.558385556051508</v>
+        <v>1.533366351326342</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.987353849528055</v>
@@ -23836,7 +23572,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.544938524265278</v>
+        <v>1.514900004479733</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.126573486929869</v>
@@ -23925,7 +23661,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.545011310530869</v>
+        <v>1.509743183862548</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.81976516374819</v>
@@ -24014,7 +23750,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.546718939989594</v>
+        <v>1.512908864665415</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.833667301739772</v>
@@ -24103,7 +23839,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.548704745913006</v>
+        <v>1.515180947083025</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.27536028610931</v>
@@ -24192,7 +23928,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.551363663237561</v>
+        <v>1.518573927238248</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.720628031487036</v>
@@ -24281,7 +24017,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.549885936362783</v>
+        <v>1.518584205061251</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.220800161622569</v>
@@ -24370,7 +24106,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.550143594516768</v>
+        <v>1.510574658098929</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.744115805110289</v>
@@ -24459,7 +24195,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.569002695844484</v>
+        <v>1.524706189484193</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.768634697602605</v>
@@ -24745,7 +24481,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.598229045818785</v>
+        <v>1.54179595485317</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.347922224925785</v>
@@ -24834,7 +24570,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.609151694062587</v>
+        <v>1.544067430797564</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.367276902092677</v>
@@ -24923,7 +24659,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.609366104795205</v>
+        <v>1.543125795976877</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.325341119995691</v>
@@ -25012,7 +24748,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.583692048622687</v>
+        <v>1.526147360447014</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.308565067584066</v>
@@ -25101,7 +24837,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.608222584363017</v>
+        <v>1.542678284521893</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.332904992980755</v>
@@ -25190,7 +24926,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.602018670112061</v>
+        <v>1.547568107430431</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.433341462192759</v>
@@ -25279,7 +25015,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.610671768769524</v>
+        <v>1.55791813594991</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.121487956442487</v>
@@ -25368,7 +25104,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.610125894957345</v>
+        <v>1.557435981946018</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.129355476858169</v>
@@ -25457,7 +25193,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.60574162317602</v>
+        <v>1.554710387224879</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.367677373180303</v>
@@ -25546,7 +25282,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.59444959879584</v>
+        <v>1.541440943637854</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.416424809844145</v>
@@ -25635,7 +25371,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.597086892577612</v>
+        <v>1.53882072224904</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.945091065785875</v>
@@ -25724,7 +25460,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.591139163471382</v>
+        <v>1.5348423364361</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.140460398403558</v>
@@ -25813,7 +25549,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.587289572247338</v>
+        <v>1.524642233315913</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.943812406969842</v>
@@ -25902,7 +25638,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.570861917166943</v>
+        <v>1.506867963382665</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.337475782967105</v>
@@ -25991,7 +25727,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.557850080123947</v>
+        <v>1.505933544002195</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.190469749608409</v>
@@ -26080,7 +25816,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.543574575978362</v>
+        <v>1.506161001515085</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.935060265290438</v>
@@ -26169,7 +25905,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.535858448966523</v>
+        <v>1.499295652122771</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.301256241464339</v>
@@ -26258,7 +25994,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.542558629477414</v>
+        <v>1.499201417816533</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.066255441663137</v>
@@ -26347,7 +26083,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.533283378881657</v>
+        <v>1.495460264251323</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.242084543157417</v>
@@ -26436,7 +26172,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.534560380938334</v>
+        <v>1.493867094891262</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.164593134054547</v>
@@ -26525,7 +26261,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.540306806576835</v>
+        <v>1.496323272791629</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.248823642116653</v>
@@ -26614,7 +26350,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.522445416200013</v>
+        <v>1.484593399968613</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.068443611639534</v>
@@ -26703,7 +26439,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.518265940961657</v>
+        <v>1.477839013935907</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.14906652957051</v>
@@ -26792,7 +26528,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.518210130548279</v>
+        <v>1.475753009058807</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.003019476147542</v>
@@ -26881,7 +26617,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.521633069328971</v>
+        <v>1.485037349087869</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.729007279992184</v>
@@ -26970,7 +26706,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.523126078361793</v>
+        <v>1.484483968800696</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.096259833333463</v>
@@ -27059,7 +26795,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.528427693042572</v>
+        <v>1.481518263479861</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.890969310162922</v>
@@ -27148,7 +26884,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.527279440203009</v>
+        <v>1.485714611022675</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.930735633563449</v>
@@ -27237,7 +26973,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.529413758775471</v>
+        <v>1.478367259913532</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.622121290963574</v>
@@ -27326,7 +27062,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.533057609823311</v>
+        <v>1.478381445873069</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.141074813262587</v>
@@ -27415,7 +27151,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.540215070150956</v>
+        <v>1.480782789392634</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.081841039787193</v>
@@ -27504,7 +27240,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.548366477614362</v>
+        <v>1.488736904193188</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.014171590417766</v>
@@ -27593,7 +27329,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.540424212984818</v>
+        <v>1.479295750279417</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.596247918130518</v>
@@ -27682,7 +27418,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.552328813575241</v>
+        <v>1.483311893686697</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.949888364283454</v>
@@ -27771,7 +27507,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.554692957304207</v>
+        <v>1.485355106180719</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.159571526150617</v>
@@ -27860,7 +27596,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.562033089506092</v>
+        <v>1.485930792138553</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.677274478840673</v>
@@ -27949,7 +27685,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.566441637045562</v>
+        <v>1.487823458993465</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.153717059976726</v>
@@ -28038,7 +27774,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.567483592554774</v>
+        <v>1.487717639280074</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.153866980326266</v>
@@ -28127,7 +27863,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.573140063297649</v>
+        <v>1.495661470891296</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.920057100652824</v>
@@ -28216,7 +27952,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.582664775459665</v>
+        <v>1.502477812494817</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.053473048786948</v>
@@ -28305,7 +28041,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.580748252583496</v>
+        <v>1.504542781700104</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.227363137508955</v>
@@ -28394,7 +28130,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.582639507885002</v>
+        <v>1.510082630512165</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.065322166985488</v>
@@ -28483,7 +28219,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.574801512035716</v>
+        <v>1.501592220993986</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.063515147495166</v>
@@ -28572,7 +28308,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.574839353370171</v>
+        <v>1.510336540670866</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.071581272214997</v>
@@ -28661,7 +28397,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.586142006566697</v>
+        <v>1.520033187229697</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.017243254961203</v>
@@ -28750,7 +28486,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.59218590273838</v>
+        <v>1.525740690227821</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.86777772787064</v>
@@ -28839,7 +28575,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.571802934647325</v>
+        <v>1.511190132488908</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.138633009272739</v>
@@ -28928,7 +28664,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.586473193423064</v>
+        <v>1.5309624069834</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.300998689380295</v>
@@ -29017,7 +28753,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.584758674745278</v>
+        <v>1.530526179425538</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.097688269635279</v>
@@ -29106,7 +28842,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.583820390017183</v>
+        <v>1.533164369751228</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.959651242039892</v>
@@ -29195,7 +28931,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.57793341166516</v>
+        <v>1.53705774739742</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.027123686639181</v>
@@ -29284,7 +29020,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.568586823415763</v>
+        <v>1.532538880621554</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.09836670880342</v>
@@ -29373,7 +29109,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.575666976373707</v>
+        <v>1.545966502740761</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.231789383531036</v>
@@ -29462,7 +29198,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.569818677464885</v>
+        <v>1.541450749728524</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.129300938061844</v>
@@ -29551,7 +29287,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.555114114186694</v>
+        <v>1.53170264750866</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.189776526718032</v>
@@ -29640,7 +29376,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.556352456861556</v>
+        <v>1.535814687082286</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.891048864831107</v>
@@ -29729,7 +29465,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.545454178046094</v>
+        <v>1.515344080081645</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.061795315540675</v>
@@ -29818,7 +29554,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.544444395508497</v>
+        <v>1.518237245521793</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.976468870385297</v>
@@ -29907,7 +29643,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.538804125883543</v>
+        <v>1.513324559360123</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.182393606630796</v>
@@ -29996,7 +29732,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.537506934163184</v>
+        <v>1.510453637924002</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.229070006261186</v>
@@ -30085,7 +29821,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.518696209630576</v>
+        <v>1.494270793245177</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.039612800992828</v>
@@ -30174,7 +29910,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.518282288380734</v>
+        <v>1.491388592556956</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.12285995825748</v>
@@ -30263,7 +29999,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.507081359860193</v>
+        <v>1.479279154292694</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.1653638940039</v>
@@ -30352,7 +30088,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.503849611298949</v>
+        <v>1.475891535753479</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.665893904780092</v>
@@ -30441,7 +30177,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.494371166607733</v>
+        <v>1.464935224729958</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.983766423241901</v>
@@ -30530,7 +30266,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.499506747506126</v>
+        <v>1.464336336896081</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.778662133986537</v>
@@ -30619,7 +30355,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.504611090573135</v>
+        <v>1.46461699893582</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.029460128433363</v>
@@ -30708,7 +30444,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.497034010868586</v>
+        <v>1.456589727277561</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.229881686241864</v>
@@ -30797,7 +30533,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.487899076507289</v>
+        <v>1.445887689463732</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.934262476428538</v>
@@ -30886,7 +30622,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.494209334800024</v>
+        <v>1.441231593499438</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.972586456989501</v>
@@ -30975,7 +30711,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.485935721058764</v>
+        <v>1.432917537881327</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.712752293637064</v>
@@ -31064,7 +30800,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.476009102069778</v>
+        <v>1.432433655987931</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.636234071456365</v>
@@ -31153,7 +30889,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.479811753608902</v>
+        <v>1.433147735447549</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.091692961854142</v>
@@ -31242,7 +30978,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.481315294079276</v>
+        <v>1.43689946799837</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.097465702493387</v>
@@ -31331,7 +31067,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.473154401387134</v>
+        <v>1.42753421655357</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.913275760382717</v>
@@ -31420,7 +31156,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.470875364319663</v>
+        <v>1.426370021052935</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.592509785119259</v>
@@ -31509,7 +31245,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.478242487911295</v>
+        <v>1.430942065921757</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.717087610704022</v>
@@ -31598,7 +31334,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.483746811501364</v>
+        <v>1.437731895582044</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.916146510877736</v>
@@ -31687,7 +31423,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.497079084547634</v>
+        <v>1.453336305676259</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.931829457644617</v>
@@ -31776,7 +31512,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.498980976787184</v>
+        <v>1.45163067874135</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.813632276401698</v>
@@ -31865,7 +31601,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.500967626807203</v>
+        <v>1.451831802655825</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.917057276999217</v>
@@ -31954,7 +31690,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.504885381316945</v>
+        <v>1.454967608931441</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.863828911566994</v>
@@ -32043,7 +31779,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.510369455643884</v>
+        <v>1.453356221920831</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.731939557929029</v>
@@ -32132,7 +31868,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.526337640358325</v>
+        <v>1.466290456721514</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.489369510683153</v>
@@ -32221,7 +31957,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.518576926075657</v>
+        <v>1.466139446249355</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.8609758095331</v>
@@ -32310,7 +32046,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.533323803456047</v>
+        <v>1.477647493065007</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.560379925472336</v>
@@ -32399,7 +32135,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.552122248794747</v>
+        <v>1.492227007312968</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.809395665169257</v>
@@ -32685,7 +32421,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.632230515734753</v>
+        <v>1.575595747758326</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.523240252196487</v>
@@ -32774,7 +32510,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.632788034076396</v>
+        <v>1.570417868036192</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.544018539456466</v>
@@ -32863,7 +32599,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.636031852346427</v>
+        <v>1.576724040170314</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.360484415153462</v>
@@ -32952,7 +32688,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.62628963266911</v>
+        <v>1.574880938848935</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.674741145945282</v>
@@ -33041,7 +32777,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.635225071817162</v>
+        <v>1.57971982351319</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.724674964705191</v>
@@ -33130,7 +32866,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.635175855001164</v>
+        <v>1.580538538941352</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.541468856634386</v>
@@ -33219,7 +32955,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.636399437241875</v>
+        <v>1.5826469546393</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.550573683021518</v>
@@ -33308,7 +33044,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.630332900230211</v>
+        <v>1.57786708410946</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.611858017163438</v>
@@ -33397,7 +33133,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.622699026974074</v>
+        <v>1.569708416796807</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.706788076528486</v>
@@ -33486,7 +33222,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.620023644494254</v>
+        <v>1.568763854843453</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.173750075759349</v>
@@ -33575,7 +33311,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.61533412686336</v>
+        <v>1.561840655974861</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.584838703210168</v>
@@ -33664,7 +33400,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.609361108020774</v>
+        <v>1.558420845650633</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.343416328381483</v>
@@ -33753,7 +33489,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.608140485736318</v>
+        <v>1.549297226717605</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.490007227488018</v>
@@ -33842,7 +33578,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.597429963559165</v>
+        <v>1.542071959318244</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.457595918969685</v>
@@ -33931,7 +33667,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.587123438546002</v>
+        <v>1.539728187095623</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.352172324548762</v>
@@ -34020,7 +33756,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.57202932231681</v>
+        <v>1.532598890645943</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.085942940080603</v>
@@ -34109,7 +33845,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.580910280448785</v>
+        <v>1.542329270126576</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.985481335300683</v>
@@ -34198,7 +33934,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.578271860328932</v>
+        <v>1.53450159748294</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.239244878902181</v>
@@ -34287,7 +34023,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.574211229655797</v>
+        <v>1.53437324128797</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.300814071500917</v>
@@ -34376,7 +34112,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.577185542713283</v>
+        <v>1.538103864270262</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.539182233032904</v>
@@ -34465,7 +34201,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.575963273067412</v>
+        <v>1.53840601172097</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.444306961970022</v>
@@ -34554,7 +34290,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.567996426428824</v>
+        <v>1.534151216581916</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.471167894261585</v>
@@ -34643,7 +34379,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.568544153519525</v>
+        <v>1.534702314309488</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.305200513530882</v>
@@ -34732,7 +34468,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.576702363973342</v>
+        <v>1.541824505725012</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.956102057585127</v>
@@ -34821,7 +34557,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.573617024449604</v>
+        <v>1.542682830572379</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.007539313855739</v>
@@ -34910,7 +34646,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.580411449460459</v>
+        <v>1.550597060107792</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.02545951697406</v>
@@ -34999,7 +34735,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.584492883110492</v>
+        <v>1.555605736037787</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.134043653201461</v>
@@ -35088,7 +34824,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.57810118618924</v>
+        <v>1.556136141755305</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.370430289845917</v>
@@ -35177,7 +34913,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.586769488747988</v>
+        <v>1.555447520024222</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.89414574096948</v>
@@ -35266,7 +35002,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.590489048375269</v>
+        <v>1.558674856270473</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.704870460971282</v>
@@ -35355,7 +35091,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.605737979167924</v>
+        <v>1.568094744773126</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.14467113895466</v>
@@ -35444,7 +35180,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.602556734884534</v>
+        <v>1.56290901655076</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.218566713917715</v>
@@ -35533,7 +35269,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.605153044716063</v>
+        <v>1.561179155811412</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.838005017038173</v>
@@ -35622,7 +35358,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.608538506705419</v>
+        <v>1.55931648540944</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.107388095805677</v>
@@ -35711,7 +35447,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.602276262602162</v>
+        <v>1.552194032024667</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.306388880747261</v>
@@ -35800,7 +35536,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.608698216773535</v>
+        <v>1.546197883936009</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.309306076679297</v>
@@ -35889,7 +35625,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.61414582250174</v>
+        <v>1.549129019508807</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.227172501586974</v>
@@ -35978,7 +35714,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.618529493925059</v>
+        <v>1.552139204075551</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.486456098864542</v>
@@ -36067,7 +35803,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.634242607521734</v>
+        <v>1.568915449396771</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.314158850018746</v>
@@ -36156,7 +35892,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.638658451807003</v>
+        <v>1.574222139683068</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.164987714872369</v>
@@ -36245,7 +35981,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.640092626281834</v>
+        <v>1.576814822860378</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.556856756489096</v>
@@ -36334,7 +36070,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.642525331088569</v>
+        <v>1.578441661780881</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.320152390692543</v>
@@ -36423,7 +36159,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.644266719951106</v>
+        <v>1.58854650196051</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.604063144741072</v>
@@ -36512,7 +36248,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.645811543410379</v>
+        <v>1.594031448113936</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.450372754614159</v>
@@ -36601,7 +36337,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.651226207225845</v>
+        <v>1.598794586151699</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.768259401248367</v>
@@ -36690,7 +36426,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.653349313800467</v>
+        <v>1.600737589724277</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.172087138212991</v>
@@ -36779,7 +36515,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.634604470409003</v>
+        <v>1.58683657591287</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.071571232962884</v>
@@ -36868,7 +36604,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.635906393236862</v>
+        <v>1.592986929304874</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.021032498787961</v>
@@ -36957,7 +36693,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.637126932352907</v>
+        <v>1.593790694809877</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.143651896682879</v>
@@ -37046,7 +36782,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.637244709470364</v>
+        <v>1.590394851492964</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.039922119472495</v>
@@ -37135,7 +36871,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.619578720259425</v>
+        <v>1.5827064533963</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.230821232631101</v>
@@ -37224,7 +36960,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.606166955241718</v>
+        <v>1.569787220972649</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.000677336739673</v>
@@ -37313,7 +37049,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.59549321398698</v>
+        <v>1.559799677758814</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.046711976119538</v>
@@ -37402,7 +37138,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.58775338667657</v>
+        <v>1.549555528778017</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.972284528458164</v>
@@ -37491,7 +37227,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.568939801435692</v>
+        <v>1.532294901631385</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.09732387969082</v>
@@ -37580,7 +37316,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.571828766480403</v>
+        <v>1.534207582282962</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.201766572895642</v>
@@ -37669,7 +37405,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.568611712981298</v>
+        <v>1.526202814436127</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.044134100206788</v>
@@ -37758,7 +37494,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.550377776623717</v>
+        <v>1.511886169375822</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.202884447939081</v>
@@ -37847,7 +37583,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.541815336470506</v>
+        <v>1.504158315268229</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.175959174804642</v>
@@ -37936,7 +37672,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.548303702138639</v>
+        <v>1.506965166839453</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.098905476774249</v>
@@ -38025,7 +37761,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.527386444953845</v>
+        <v>1.490394259049258</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.828283104826654</v>
@@ -38114,7 +37850,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.524715981125529</v>
+        <v>1.489663149378644</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.189377172463908</v>
@@ -38203,7 +37939,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.52107608861956</v>
+        <v>1.480633649755628</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.164528136391715</v>
@@ -38292,7 +38028,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.506491451372518</v>
+        <v>1.471118025334363</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.54240611875043</v>
@@ -38381,7 +38117,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.502537129697838</v>
+        <v>1.46950147839745</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.660618861448734</v>
@@ -38470,7 +38206,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.512676030206848</v>
+        <v>1.476819796571724</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.551122814200886</v>
@@ -38559,7 +38295,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.528084039549286</v>
+        <v>1.49088034248691</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.620756225182208</v>
@@ -38648,7 +38384,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.520810704656984</v>
+        <v>1.484871626777631</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.81452931867656</v>
@@ -38737,7 +38473,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.519845086173847</v>
+        <v>1.485173283475502</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.962539869822209</v>
@@ -38826,7 +38562,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.534277452582095</v>
+        <v>1.489516088692503</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.880874457049432</v>
@@ -38915,7 +38651,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.52847959987288</v>
+        <v>1.483809404060926</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.595325137810188</v>
@@ -39004,7 +38740,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.517690454507932</v>
+        <v>1.475623244033357</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.6813374040271</v>
@@ -39093,7 +38829,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.532045522805444</v>
+        <v>1.48233943437114</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.846936675634537</v>
@@ -39182,7 +38918,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.527214817817112</v>
+        <v>1.480296851101636</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.819390179327646</v>
@@ -39271,7 +39007,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.518593529273212</v>
+        <v>1.469690879544179</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.896448956877581</v>
@@ -39360,7 +39096,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.516549892971601</v>
+        <v>1.468359239109947</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.557980675964712</v>
@@ -39449,7 +39185,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.521382258841306</v>
+        <v>1.474906654748548</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.765963813391559</v>
@@ -39538,7 +39274,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.529898164245871</v>
+        <v>1.48680187051646</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.828768970821403</v>
@@ -39627,7 +39363,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.549540986293491</v>
+        <v>1.505442546651098</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.893077817184673</v>
@@ -39716,7 +39452,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.554320752265113</v>
+        <v>1.506977410507618</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.65284517687839</v>
@@ -39805,7 +39541,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.550764368160564</v>
+        <v>1.505871653448216</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.814885281191537</v>
@@ -39894,7 +39630,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.544415368688398</v>
+        <v>1.49956248447789</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.879097059742747</v>
@@ -39983,7 +39719,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.555325981788416</v>
+        <v>1.506044876830951</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.619171148559466</v>
@@ -40072,7 +39808,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.561654512623598</v>
+        <v>1.513302836052163</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.536969875302744</v>
@@ -40161,7 +39897,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.549599300937725</v>
+        <v>1.506661119491271</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.775596647269864</v>
@@ -40250,7 +39986,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.5561496948287</v>
+        <v>1.512254620397991</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.543966583760298</v>
@@ -40339,7 +40075,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.568815550104983</v>
+        <v>1.522636419348181</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.750930690392706</v>
@@ -40625,7 +40361,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.606292029111763</v>
+        <v>1.544483052454322</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.260008726559108</v>
@@ -40714,7 +40450,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.615666014917289</v>
+        <v>1.541590572449934</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.321540002442991</v>
@@ -40803,7 +40539,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.609844818220312</v>
+        <v>1.535698821837986</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.302994030790148</v>
@@ -40892,7 +40628,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.607175497376241</v>
+        <v>1.534460168182411</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.472127843827284</v>
@@ -40981,7 +40717,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.607868970842394</v>
+        <v>1.534632503539132</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.225656964492578</v>
@@ -41070,7 +40806,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.607408951420205</v>
+        <v>1.531539448044307</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.6460064860336</v>
@@ -41159,7 +40895,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.601387517566518</v>
+        <v>1.526255769804173</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.342857045087535</v>
@@ -41248,7 +40984,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.600726760157768</v>
+        <v>1.528673551456641</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.436971001744958</v>
@@ -41337,7 +41073,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.610999886727771</v>
+        <v>1.536360754458964</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.561313251062585</v>
@@ -41426,7 +41162,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.588122068711227</v>
+        <v>1.521754379217894</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.401593465994163</v>
@@ -41515,7 +41251,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.573347976225266</v>
+        <v>1.510396738986552</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.417706721539729</v>
@@ -41604,7 +41340,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.565807954881542</v>
+        <v>1.5045607829172</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.510601638212456</v>
@@ -41693,7 +41429,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.581371132424588</v>
+        <v>1.519528977411005</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.631496326285806</v>
@@ -41782,7 +41518,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.567713808779442</v>
+        <v>1.508986544190216</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.475657850986403</v>
@@ -41871,7 +41607,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.558545266968548</v>
+        <v>1.50162779765791</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.451860357880759</v>
@@ -41960,7 +41696,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.543693501891183</v>
+        <v>1.489073887922062</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.606131370588784</v>
@@ -42049,7 +41785,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.525920628152255</v>
+        <v>1.480013444585467</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.328591701319123</v>
@@ -42138,7 +41874,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.526633231400907</v>
+        <v>1.479502549788993</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.468146137265704</v>
@@ -42227,7 +41963,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.525173971807346</v>
+        <v>1.481507512711857</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.460303972112689</v>
@@ -42316,7 +42052,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.527737932879237</v>
+        <v>1.481959833801885</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.392610317086568</v>
@@ -42405,7 +42141,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.528028087471747</v>
+        <v>1.48051963243532</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.590806322294468</v>
@@ -42494,7 +42230,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.521052536237926</v>
+        <v>1.478383804768822</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.56465271098006</v>
@@ -42583,7 +42319,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.516873430929445</v>
+        <v>1.477225183981942</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.46528719327352</v>
@@ -42672,7 +42408,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.516496049203182</v>
+        <v>1.478452186096878</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.408312363485971</v>
@@ -42761,7 +42497,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.521707119060386</v>
+        <v>1.486194304927796</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.824180016987703</v>
@@ -42850,7 +42586,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.516067576276074</v>
+        <v>1.478878245666716</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.838616557609022</v>
@@ -42939,7 +42675,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.521329270846691</v>
+        <v>1.484530302729511</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.965673593652915</v>
@@ -43028,7 +42764,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.504272027340363</v>
+        <v>1.468520507553416</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.962911094199161</v>
@@ -43117,7 +42853,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.512538481569648</v>
+        <v>1.470743541553099</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.914676512023759</v>
@@ -43206,7 +42942,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.525335187991687</v>
+        <v>1.483110330477471</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.642447448083</v>
@@ -43295,7 +43031,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.533355559952804</v>
+        <v>1.49396493361913</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.855081581255866</v>
@@ -43384,7 +43120,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.546854126649111</v>
+        <v>1.508323121708667</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.897688996533665</v>
@@ -43473,7 +43209,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.535847689757703</v>
+        <v>1.493273940967954</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.788130260854421</v>
@@ -43562,7 +43298,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.532539442017723</v>
+        <v>1.489272288577705</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.870758041858162</v>
@@ -43651,7 +43387,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.526605651684691</v>
+        <v>1.486577906958674</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.047127315196849</v>
@@ -43740,7 +43476,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.528771109527398</v>
+        <v>1.48924121185527</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.879948134099724</v>
@@ -43829,7 +43565,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.535276663451536</v>
+        <v>1.491155297490304</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.994288004155315</v>
@@ -43918,7 +43654,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.536899755380673</v>
+        <v>1.488738059088759</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.907027943353758</v>
@@ -44007,7 +43743,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.544679697756475</v>
+        <v>1.491024707622649</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.753103473479198</v>
@@ -44096,7 +43832,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.555396429946792</v>
+        <v>1.49824952504775</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.16678549062601</v>
@@ -44185,7 +43921,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.57022107066272</v>
+        <v>1.508539059786435</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.802012251785146</v>
@@ -44274,7 +44010,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.570276799311836</v>
+        <v>1.512844785587499</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.932371854274369</v>
@@ -44363,7 +44099,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.580184825453746</v>
+        <v>1.522523389923871</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.150108634598606</v>
@@ -44452,7 +44188,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.572554055775548</v>
+        <v>1.526871367209525</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.185225337524749</v>
@@ -44541,7 +44277,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.568411808285863</v>
+        <v>1.525920396466142</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.971122435892389</v>
@@ -44630,7 +44366,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.568833413021958</v>
+        <v>1.52786634661358</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.716243657351979</v>
@@ -44719,7 +44455,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.56757625461117</v>
+        <v>1.524563988169478</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.084921707106046</v>
@@ -44808,7 +44544,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.583050100823761</v>
+        <v>1.543331704354059</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.192494076160368</v>
@@ -44897,7 +44633,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.585297126021229</v>
+        <v>1.55198178245262</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.616129201753991</v>
@@ -44986,7 +44722,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.59752681403596</v>
+        <v>1.558674456479933</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.698078700179746</v>
@@ -45075,7 +44811,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.594632043143989</v>
+        <v>1.559477137068019</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.337823280557879</v>
@@ -45164,7 +44900,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.580728129492158</v>
+        <v>1.553181715691577</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.905417404334029</v>
@@ -45253,7 +44989,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.57241279968908</v>
+        <v>1.547726315135091</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.755526614967166</v>
@@ -45342,7 +45078,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.562408630820402</v>
+        <v>1.545830838203149</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.055800867132676</v>
@@ -45431,7 +45167,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.558523236402636</v>
+        <v>1.543376273995377</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.141294780311417</v>
@@ -45520,7 +45256,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.568893257884556</v>
+        <v>1.556202790231643</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.085174660949639</v>
@@ -45609,7 +45345,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.557683612837112</v>
+        <v>1.541311757699778</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.195549413411836</v>
@@ -45698,7 +45434,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.547694537842562</v>
+        <v>1.533766288047152</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.01142377948436</v>
@@ -45787,7 +45523,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.550986358126761</v>
+        <v>1.535537954093631</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.045858777998422</v>
@@ -45876,7 +45612,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.56077603282828</v>
+        <v>1.540698589812883</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.1156625667026</v>
@@ -45965,7 +45701,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.539433116174533</v>
+        <v>1.516136317663826</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.982113341575779</v>
@@ -46054,7 +45790,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.536296848375367</v>
+        <v>1.522159163793049</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.970294423605927</v>
@@ -46143,7 +45879,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.525211430352577</v>
+        <v>1.516948079648559</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.026721254497013</v>
@@ -46232,7 +45968,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.516547060454779</v>
+        <v>1.509951711493539</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.081014725338649</v>
@@ -46321,7 +46057,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.515056610000471</v>
+        <v>1.513311268590543</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.075561237903239</v>
@@ -46410,7 +46146,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.525137680161957</v>
+        <v>1.523873979015724</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.636169471109056</v>
@@ -46499,7 +46235,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.543478740222247</v>
+        <v>1.537108424344995</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.924782939033938</v>
@@ -46588,7 +46324,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.542792725670114</v>
+        <v>1.537852883527936</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.035093472640818</v>
@@ -46677,7 +46413,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.54643162552777</v>
+        <v>1.53581677568061</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.269862585579662</v>
@@ -46766,7 +46502,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.548082546104547</v>
+        <v>1.530319116967327</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.224991514017451</v>
@@ -46855,7 +46591,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.544168310955828</v>
+        <v>1.522252124034861</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.904841405663164</v>
@@ -46944,7 +46680,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.544782067113256</v>
+        <v>1.526541744984317</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.811492155674431</v>
@@ -47033,7 +46769,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.551323457307808</v>
+        <v>1.533363850903109</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.306033329579647</v>
@@ -47122,7 +46858,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.523149909804808</v>
+        <v>1.518519422658793</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.827711290033758</v>
@@ -47211,7 +46947,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.490477749925949</v>
+        <v>1.487704269834686</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.598992194482133</v>
@@ -47300,7 +47036,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.493513560443999</v>
+        <v>1.485408214378337</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.495309681117515</v>
@@ -47389,7 +47125,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.497593469971356</v>
+        <v>1.489725994936345</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.403395621419622</v>
@@ -47478,7 +47214,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.502963967009791</v>
+        <v>1.493615742316817</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.545724441832025</v>
@@ -47567,7 +47303,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.510528814932089</v>
+        <v>1.498537164324492</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.45290410222186</v>
@@ -47656,7 +47392,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.508664066442511</v>
+        <v>1.495944867410164</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.243994694046073</v>
@@ -47745,7 +47481,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.506265691792627</v>
+        <v>1.491530276591983</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.399798618895352</v>
@@ -47834,7 +47570,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.501460937702245</v>
+        <v>1.488739559225986</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.483608255392853</v>
@@ -47923,7 +47659,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.50728548044859</v>
+        <v>1.492776417882834</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.430309566294139</v>
@@ -48012,7 +47748,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.504417813225649</v>
+        <v>1.494662118256334</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.372892672796021</v>
@@ -48101,7 +47837,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.501876138290374</v>
+        <v>1.496949303192803</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.426599230757272</v>
@@ -48190,7 +47926,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.507526019617021</v>
+        <v>1.506456916894346</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.206300261348986</v>
@@ -48279,7 +48015,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.520128329726514</v>
+        <v>1.517500064132867</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.21428417655091</v>
@@ -48565,7 +48301,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.364291624999689</v>
+        <v>1.357064658863669</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.181357227779188</v>
@@ -48654,7 +48390,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.394395078896064</v>
+        <v>1.383837607141299</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.15574824608595</v>
@@ -48743,7 +48479,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.389910762941738</v>
+        <v>1.375258387909422</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.164461153765165</v>
@@ -48832,7 +48568,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.341894630944257</v>
+        <v>1.327169128951394</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.129140534299682</v>
@@ -48921,7 +48657,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.371486110126159</v>
+        <v>1.355452845152144</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.111800541491304</v>
@@ -49010,7 +48746,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.370827571457871</v>
+        <v>1.354632206894094</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.114282498918354</v>
@@ -49099,7 +48835,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.391886397043868</v>
+        <v>1.373738828845534</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.993446094501846</v>
@@ -49188,7 +48924,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.402145709348917</v>
+        <v>1.380437698130277</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.077192941033654</v>
@@ -49277,7 +49013,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.402735421950528</v>
+        <v>1.378395470147614</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.114487550497794</v>
@@ -49366,7 +49102,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.370269743489113</v>
+        <v>1.349541988488954</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.190134488954328</v>
@@ -49455,7 +49191,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.382399269505606</v>
+        <v>1.359651737975142</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.953463668160001</v>
@@ -49544,7 +49280,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.397834805756004</v>
+        <v>1.373251455946428</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.074747133878995</v>
@@ -49633,7 +49369,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.399702166073879</v>
+        <v>1.375871023946334</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.061712210687024</v>
@@ -49722,7 +49458,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.386240560936968</v>
+        <v>1.3580709185141</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.140401555760822</v>
@@ -49811,7 +49547,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.396877243130056</v>
+        <v>1.362478316890484</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.057416960686127</v>
@@ -49900,7 +49636,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.379856772750319</v>
+        <v>1.355041549962204</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.034902915112253</v>
@@ -49989,7 +49725,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.375933136918586</v>
+        <v>1.353515072494484</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.066540103227871</v>
@@ -50078,7 +49814,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.392987742786095</v>
+        <v>1.37439683693133</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.204910597960129</v>
@@ -50167,7 +49903,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.391509478239238</v>
+        <v>1.377197663931214</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.031717024537083</v>
@@ -50256,7 +49992,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.391390237592877</v>
+        <v>1.374626298870483</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.071061943212357</v>
@@ -50345,7 +50081,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.383086323772183</v>
+        <v>1.352922700417877</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.070625030536488</v>
@@ -50434,7 +50170,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.354111053053784</v>
+        <v>1.338976405509322</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.040675509050359</v>
@@ -50523,7 +50259,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.356870355153432</v>
+        <v>1.343592858324854</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.133301404890613</v>
@@ -50612,7 +50348,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.354908093626307</v>
+        <v>1.338526685320865</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.131059567442994</v>
@@ -50701,7 +50437,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.346863921387211</v>
+        <v>1.332245047899057</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.974385444988487</v>
@@ -50790,7 +50526,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.351740973271147</v>
+        <v>1.337291826707632</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.042871406900538</v>
@@ -50879,7 +50615,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.35282836098634</v>
+        <v>1.339883325878964</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.042804463435745</v>
@@ -50968,7 +50704,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.344738038981834</v>
+        <v>1.331349289806261</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.021898947151148</v>
@@ -51057,7 +50793,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.317903483352015</v>
+        <v>1.308661470258948</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.051910883689507</v>
@@ -51146,7 +50882,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.3324957493252</v>
+        <v>1.324621851599003</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.07429783474236</v>
@@ -51235,7 +50971,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.342476522459621</v>
+        <v>1.330332299650074</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.022257623629084</v>
@@ -51324,7 +51060,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.34561386534167</v>
+        <v>1.331607902330074</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.041056342280027</v>
@@ -51413,7 +51149,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.330327232929851</v>
+        <v>1.313819604726996</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.897509419536062</v>
@@ -51502,7 +51238,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.346332764338124</v>
+        <v>1.328551326961489</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.013038943163288</v>
@@ -51591,7 +51327,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.351568404610225</v>
+        <v>1.331664947565415</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.967757428845081</v>
@@ -51680,7 +51416,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.386116654848806</v>
+        <v>1.364723353612539</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.968427824780963</v>
@@ -51769,7 +51505,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.383831403892866</v>
+        <v>1.363647799312424</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.976854935215091</v>
@@ -51858,7 +51594,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.347683727088899</v>
+        <v>1.32834163189451</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.004002234870998</v>
@@ -51947,7 +51683,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.359575707678008</v>
+        <v>1.339009425178653</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.936797917611096</v>
@@ -52036,7 +51772,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.389101278865476</v>
+        <v>1.368068635964417</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.007674294445753</v>
@@ -52125,7 +51861,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.382554389248789</v>
+        <v>1.361324058224815</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.023111701705211</v>
@@ -52214,7 +51950,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.389005591124197</v>
+        <v>1.367495898063049</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.923115427278689</v>
@@ -52303,7 +52039,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.363017003481657</v>
+        <v>1.34433438207831</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.051429100186652</v>
@@ -52392,7 +52128,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.403511253137913</v>
+        <v>1.383484227214275</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.015676168418221</v>
@@ -52481,7 +52217,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.413453065367049</v>
+        <v>1.392266707726802</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.003613307701666</v>
@@ -52570,7 +52306,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.408473460789303</v>
+        <v>1.388546576700102</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.037722991005376</v>
@@ -52659,7 +52395,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.406294094415715</v>
+        <v>1.388366506055619</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.030766211035347</v>
@@ -52748,7 +52484,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.454662448322366</v>
+        <v>1.430785283275902</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.981616383846405</v>
@@ -52837,7 +52573,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.449954254945375</v>
+        <v>1.415280933054696</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.009527404088098</v>
@@ -52926,7 +52662,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.406153442288592</v>
+        <v>1.387723641118348</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.004583649336421</v>
@@ -53015,7 +52751,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.398743650373128</v>
+        <v>1.38332254568527</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.035027226616106</v>
@@ -53104,7 +52840,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.402049355517109</v>
+        <v>1.384738977585086</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.020582375085869</v>
@@ -53193,7 +52929,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.426771447097027</v>
+        <v>1.415104643124381</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.047607977798551</v>
@@ -53282,7 +53018,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.392448962487304</v>
+        <v>1.382879781524524</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.961916371066977</v>
@@ -53371,7 +53107,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.384654723825909</v>
+        <v>1.377569354102476</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.039602409151656</v>
@@ -53460,7 +53196,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.387184472014795</v>
+        <v>1.380339166417318</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.026760954976892</v>
@@ -53549,7 +53285,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.384474781942279</v>
+        <v>1.371985342989506</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.006965239112071</v>
@@ -53638,7 +53374,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.408754661824936</v>
+        <v>1.394071776107733</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.005795478783505</v>
@@ -53727,7 +53463,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.365496490267104</v>
+        <v>1.355985194169446</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.046501491251364</v>
@@ -53816,7 +53552,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.360517916143082</v>
+        <v>1.351418003138761</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.033776504195224</v>
@@ -53905,7 +53641,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.334869867455181</v>
+        <v>1.323976481721773</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.050929208231034</v>
@@ -53994,7 +53730,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.337173853700547</v>
+        <v>1.318255927597246</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.049480407008945</v>
@@ -54083,7 +53819,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.302162245544342</v>
+        <v>1.298681030933592</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.110822491037076</v>
@@ -54172,7 +53908,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.325348502356083</v>
+        <v>1.320497226751641</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.104259774721716</v>
@@ -54261,7 +53997,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.329598985843822</v>
+        <v>1.326588986847838</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.149464700524447</v>
@@ -54350,7 +54086,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.333662469741327</v>
+        <v>1.330116834227187</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.273657817036948</v>
@@ -54439,7 +54175,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.345355111149016</v>
+        <v>1.333902990338568</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.265341353737762</v>
@@ -54528,7 +54264,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.349304857338958</v>
+        <v>1.335386343596454</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.174673367457759</v>
@@ -54617,7 +54353,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.348077860181871</v>
+        <v>1.335673150994837</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.163117107096877</v>
@@ -54706,7 +54442,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.359144879006905</v>
+        <v>1.341452401736757</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.136808435545344</v>
@@ -54795,7 +54531,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.357883608870391</v>
+        <v>1.341076392740412</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.265005299615436</v>
@@ -54884,7 +54620,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.352363451317978</v>
+        <v>1.336840698989625</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.054511736135009</v>
@@ -54973,7 +54709,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.358727602001919</v>
+        <v>1.340092421518534</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.241800215041047</v>
@@ -55062,7 +54798,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.389046314669881</v>
+        <v>1.368119838672859</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.188757185909291</v>
@@ -55151,7 +54887,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.352874083845649</v>
+        <v>1.335637123875725</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.163668453814732</v>
@@ -55240,7 +54976,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.372074445522793</v>
+        <v>1.35150096570298</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.209405823106824</v>
@@ -55329,7 +55065,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.39620799870597</v>
+        <v>1.370742065921066</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.863340821188549</v>
@@ -55418,7 +55154,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.410286180875303</v>
+        <v>1.383922131863538</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.076009022706924</v>
@@ -55507,7 +55243,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.403776829624201</v>
+        <v>1.381062017202758</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.084183618239041</v>
@@ -55596,7 +55332,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.366086592052618</v>
+        <v>1.343494885984311</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.116997436901698</v>
@@ -55685,7 +55421,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.370786853815609</v>
+        <v>1.349503560268062</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.163640245594652</v>
@@ -55774,7 +55510,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.365848606859957</v>
+        <v>1.353074395817936</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.175120542928636</v>
@@ -55863,7 +55599,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.364683505096634</v>
+        <v>1.347445469624003</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.123609243741194</v>
@@ -55952,7 +55688,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.397187285630758</v>
+        <v>1.37763611644919</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.086439350479185</v>
@@ -56041,7 +55777,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.351391508384423</v>
+        <v>1.337789810321669</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.09026507143169</v>
@@ -56130,7 +55866,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.354509770127412</v>
+        <v>1.336894004138215</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.119019773838708</v>
@@ -56219,7 +55955,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.360345655911309</v>
+        <v>1.346577401676266</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.074004982743679</v>
